--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1220,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>2025-08-12 11:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:33:20</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,37 +7,38 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>云南锗业</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,54 +508,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-17.75</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>计算出的卖出数量不足100股: 0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-12 09:32:11</t>
+          <t>2025-08-13 09:33:23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>振江股份</t>
+          <t>紫光股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.32</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-12 09:32:32</t>
+          <t>2025-08-13 09:33:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -563,7 +564,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-31.26</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -575,70 +576,70 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-12 09:34:01</t>
+          <t>2025-08-13 09:33:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中科金财</t>
+          <t>本钢板材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32.89</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>本钢板材 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-12 09:34:17</t>
+          <t>2025-08-13 09:34:14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>丰林集团</t>
+          <t>农尚环境</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>农尚环境 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-12 10:45:42</t>
+          <t>2025-08-13 09:34:22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>卫光生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -647,26 +648,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-12 10:46:18</t>
+          <t>2025-08-13 09:34:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -675,54 +676,54 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>万丰股份 没有持仓</t>
+          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-12 10:46:34</t>
+          <t>2025-08-13 09:41:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-12 10:47:23</t>
+          <t>2025-08-13 10:20:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>中持股份</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,26 +732,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.99</v>
+        <v>33</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-12 10:47:57</t>
+          <t>2025-08-13 10:21:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>浩物股份</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -759,495 +760,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.01</v>
+        <v>33</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-12 10:48:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>双枪科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>播恩集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>醋化股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>钱江生化 没有持仓</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>黄山胶囊 没有持仓</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>新宏泽 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>汇洁股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:11:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:14:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>33</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:33:20</t>
+          <t>2025-08-13 13:37:38</t>
         </is>
       </c>
     </row>
@@ -1257,6 +782,785 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>美芝股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>美芝股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:33:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>一彬科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:33:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>德联集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:34:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>德龙汇能 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:34:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>百达精工</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:35:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>惠达卫浴 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:35:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>金鹰股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>瑞尔特 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>中重科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>大龙地产 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 林海股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 恒尚节能 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>买入 曙光股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>友好集团</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>友好集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>深圳新星 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>紫金矿业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>大业股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 诚邦股份 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>卖出 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:43:33</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1615,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1913,7 +2217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2227,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2334,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +2857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2660,7 +2964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2823,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3098,7 +3402,814 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:32:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:32:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>万丰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>双枪科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>播恩集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>醋化股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>钱江生化 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>汇洁股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:33:20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4882,444 +5993,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-11 10:35:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-11 10:35:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-11 13:36:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>宗申动力</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-11 14:21:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -5377,7 +6050,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5386,54 +6059,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5449,19 +6122,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5470,26 +6143,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5498,26 +6171,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5533,19 +6206,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5561,40 +6234,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -5604,6 +6277,281 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6130,7 +7078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6215,7 +7163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6267,7 +7215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6374,7 +7322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6501,197 +7449,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -6754,58 +7511,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6817,51 +7574,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6877,12 +7634,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -6940,35 +7697,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6977,7 +7734,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -6989,23 +7746,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -7017,63 +7774,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -7083,6 +7840,686 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:35:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:35:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:21:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>荣晟环保 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:31:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7385,13 +8822,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7434,7 +8871,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7443,26 +8880,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.95</v>
+        <v>30.87</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-08 14:35:49</t>
+          <t>2025-08-06 09:40:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>广晟有色</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7471,31 +8908,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-39.45</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>广晟有色 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-08 14:36:09</t>
+          <t>2025-08-06 09:40:21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>城地香江</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -7511,7 +8948,231 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-08 14:36:48</t>
+          <t>2025-08-06 09:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>光华科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>恒立液压 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>三星医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:39:19</t>
         </is>
       </c>
     </row>
@@ -7520,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7569,35 +9230,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>宝钛股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-7.2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>恒基达鑫 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-10 10:22:40</t>
+          <t>2025-08-05 09:31:41</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>保利发展</t>
+          <t>广晟有色</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7606,35 +9267,35 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-10 10:23:17</t>
+          <t>2025-08-05 09:31:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>中设股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -7646,63 +9307,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-10 10:29:40</t>
+          <t>2025-08-05 09:32:19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>荣晟环保</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>荣晟环保 没有可用持仓</t>
+          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-10 10:30:26</t>
+          <t>2025-08-05 09:54:01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-10 10:31:12</t>
+          <t>2025-08-05 10:16:11</t>
         </is>
       </c>
     </row>
@@ -7711,557 +9372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30.87</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:40:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>广晟有色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>广晟有色 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:40:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>城地香江</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:40:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>光华科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:59:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-06 09:59:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>恒立液压</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>恒立液压 没有持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:14:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:42:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-06 10:55:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-06 11:26:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:01:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>三星医疗</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>三星医疗 没有持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:39:19</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宝钛股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>广晟有色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中设股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:32:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:54:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:16:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8424,7 +9535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8727,7 +9838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8888,783 +9999,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>美芝股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.03</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>美芝股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:33:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:33:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>一彬科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>一彬科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:33:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>德联集团</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>德联集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:34:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>德龙汇能 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:34:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:34:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>百达精工</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:35:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>惠达卫浴 没有持仓</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:35:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>金鹰股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:35:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>瑞尔特 没有持仓</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:36:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:36:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>中重科技</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:37:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>大龙地产 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:37:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>林海股份</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 林海股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:38:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 恒尚节能 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:38:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>曙光股份</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>买入 曙光股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:38:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>黄山胶囊 没有持仓</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:39:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>福建金森 没有持仓</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:39:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:39:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>友好集团</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>友好集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:40:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>深圳新星</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>深圳新星 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:40:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>紫金矿业</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>紫金矿业 没有持仓</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:40:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>大业股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:40:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:41:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入 诚邦股份 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:41:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>华勤技术</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>卖出 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-07-30 09:43:33</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,38 +7,39 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,63 +509,63 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-17.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>计算出的卖出数量不足100股: 0</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:23</t>
+          <t>2025-08-14 09:32:10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>紫光股份</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>16</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>京北方 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:36</t>
+          <t>2025-08-14 09:54:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.55</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -576,14 +577,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:58</t>
+          <t>2025-08-14 09:56:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>本钢板材</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -595,184 +596,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>本钢板材 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-13 09:34:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>农尚环境</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>农尚环境 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卫光生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:41:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:20:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:21:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-13 13:37:38</t>
+          <t>2025-08-14 10:31:23</t>
         </is>
       </c>
     </row>
@@ -782,6 +615,169 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>东阳光</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>东阳光 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鄂尔多斯</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>华设集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:21:44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1560,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1919,7 +1915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +1994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2217,7 +2213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2638,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2964,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3127,7 +3123,338 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-17.75</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>计算出的卖出数量不足100股: 0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>本钢板材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>本钢板材 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>农尚环境</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>农尚环境 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-13 10:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-13 10:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-13 13:37:38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3402,814 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>云南锗业</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:32:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:32:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:34:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:34:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:45:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:46:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>万丰股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:46:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:47:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:47:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>浩物股份</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:48:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>双枪科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>播恩集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>醋化股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>钱江生化 没有持仓</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>黄山胶囊 没有持仓</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>新宏泽 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>汇洁股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:11:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:14:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>33</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:33:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5993,281 +5513,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6325,7 +5570,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6334,54 +5579,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6397,19 +5642,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6418,26 +5663,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6446,26 +5691,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6481,19 +5726,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6509,40 +5754,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6552,6 +5797,281 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7078,7 +6598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7163,7 +6683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7215,7 +6735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7322,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7449,197 +6969,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -7702,58 +7031,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7765,51 +7094,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7825,12 +7154,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7888,16 +7217,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>云南锗业</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -7909,23 +7238,23 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:35:04</t>
+          <t>2025-08-12 09:32:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -7937,51 +7266,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:35:23</t>
+          <t>2025-08-12 09:32:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.26</v>
+        <v>-31.26</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:36:48</t>
+          <t>2025-08-12 09:34:01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>中科金财</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>32.89</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -7993,7 +7322,651 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:21:11</t>
+          <t>2025-08-12 09:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>万丰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>双枪科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>播恩集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>醋化股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>钱江生化 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>汇洁股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:33:20</t>
         </is>
       </c>
     </row>
@@ -8051,35 +8024,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8088,7 +8061,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -8100,23 +8073,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -8128,63 +8101,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -8194,6 +8167,197 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8328,7 +8492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8525,6 +8689,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:35:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-11 10:35:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:21:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8822,7 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9181,7 +9508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9372,7 +9699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9535,7 +9862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9836,167 +10163,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>东阳光</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>东阳光 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:31:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>鄂尔多斯</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:32:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>华设集团</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>华设集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:32:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:21:44</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,39 +7,40 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,16 +501,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>顺络电子</t>
+          <t>东睦股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -521,14 +522,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-14 09:32:10</t>
+          <t>2025-08-15 10:34:32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>京北方</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -537,26 +538,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>京北方 没有持仓</t>
+          <t>科达利 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-14 09:54:41</t>
+          <t>2025-08-15 10:34:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>广宇集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -565,26 +566,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.55</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-14 09:56:05</t>
+          <t>2025-08-15 10:34:48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>鲁西化工</t>
+          <t>得邦照明</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -596,16 +597,182 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>得邦照明 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>立中集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金诚信</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金诚信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>委托已提交</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-14 10:31:23</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-15 11:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 多氟多 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 长江电力 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>中国电信</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>中国电信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:08</t>
         </is>
       </c>
     </row>
@@ -615,6 +782,309 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>梦网科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>包钢股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>海南矿业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>镇海股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>诚邦股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1556,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1915,7 +2385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1994,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2213,7 +2683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2527,7 +2997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2634,7 +3104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2853,7 +3323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2960,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +3479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3018,26 +3488,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-20.82</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>居然智家 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-18 10:37:59</t>
+          <t>2025-08-14 09:32:10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>京北方</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3046,63 +3516,63 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-22.32</v>
+        <v>16</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>恒基达鑫 没有持仓</t>
+          <t>京北方 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-18 10:38:09</t>
+          <t>2025-08-14 09:54:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>华孚时尚</t>
+          <t>弘业期货</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20.55</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>华孚时尚 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-18 10:38:30</t>
+          <t>2025-08-14 09:56:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>鲁西化工</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3114,7 +3584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-18 13:57:54</t>
+          <t>2025-08-14 10:31:23</t>
         </is>
       </c>
     </row>
@@ -3123,13 +3593,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,7 +3642,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3181,54 +3651,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-17.75</v>
+        <v>-20.82</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>计算出的卖出数量不足100股: 0</t>
+          <t>居然智家 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:23</t>
+          <t>2025-07-18 10:37:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>紫光股份</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>-22.32</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>恒基达鑫 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:36</t>
+          <t>2025-07-18 10:38:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3240,212 +3710,44 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>华孚时尚 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-13 09:33:58</t>
+          <t>2025-07-18 10:38:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>本钢板材</t>
+          <t>航锦科技</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>本钢板材 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-13 09:34:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>农尚环境</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>农尚环境 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卫光生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:41:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:20:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:21:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-13 13:37:38</t>
+          <t>2025-07-18 13:57:54</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3729,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5513,281 +5815,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5872,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5854,54 +5881,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5917,19 +5944,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5938,26 +5965,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5966,26 +5993,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6001,19 +6028,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6029,40 +6056,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6072,6 +6099,281 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6598,7 +6900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6683,7 +6985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6735,7 +7037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6842,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6977,13 +7279,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7026,7 +7328,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7035,54 +7337,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-27.94</v>
+        <v>-17.75</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>不在持仓列表中</t>
+          <t>计算出的卖出数量不足100股: 0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-03 09:33:42</t>
+          <t>2025-08-13 09:33:23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>山高环能</t>
+          <t>紫光股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-29.21</v>
+        <v>18.32</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-03 09:33:53</t>
+          <t>2025-08-13 09:33:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>稀土ETF基金</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7094,23 +7396,23 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>不在持仓列表中</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-03 10:25:24</t>
+          <t>2025-08-13 09:33:58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>振江股份</t>
+          <t>本钢板材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7122,23 +7424,23 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>本钢板材 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-03 14:04:59</t>
+          <t>2025-08-13 09:34:14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>杭钢股份</t>
+          <t>农尚环境</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7154,210 +7456,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>不在持仓列表中</t>
+          <t>农尚环境 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-03 14:08:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>云南锗业</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:32:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:32:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-31.26</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:34:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中科金财</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-12 09:34:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>丰林集团</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:45:42</t>
+          <t>2025-08-13 09:34:22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>卫光生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7366,26 +7477,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-12 10:46:18</t>
+          <t>2025-08-13 09:34:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>银轮股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7394,54 +7505,54 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>万丰股份 没有持仓</t>
+          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-12 10:46:34</t>
+          <t>2025-08-13 09:41:27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>神州数码</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-12 10:47:23</t>
+          <t>2025-08-13 10:20:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>中持股份</t>
+          <t>科达利</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7450,26 +7561,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.99</v>
+        <v>33</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-12 10:47:57</t>
+          <t>2025-08-13 10:21:06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>浩物股份</t>
+          <t>顺络电子</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7478,495 +7589,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.01</v>
+        <v>33</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-12 10:48:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>双枪科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:49:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>播恩集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>醋化股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:50:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>钱江生化 没有持仓</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>黄山胶囊 没有持仓</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>新宏泽 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:51:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>汇洁股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:52:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-12 10:53:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:11:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-12 11:14:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>33</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-08-12 14:33:20</t>
+          <t>2025-08-13 13:37:38</t>
         </is>
       </c>
     </row>
@@ -8029,58 +7664,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8092,51 +7727,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8152,12 +7787,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -8215,35 +7850,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8252,7 +7887,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -8264,23 +7899,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -8292,63 +7927,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -8358,6 +7993,197 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8492,7 +8318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8689,6 +8515,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:32:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:32:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-12 09:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>万丰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>双枪科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>播恩集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>醋化股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>钱江生化 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>汇洁股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>买入 神州数码 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:33:20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8846,7 +9479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9149,7 +9782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9508,7 +10141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9699,7 +10332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9860,307 +10493,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-30.01</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>梦网科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>锐明技术</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>包钢股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>海南矿业 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>镇海股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>文科园林</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>诚邦股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:48</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,40 +7,41 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,16 +502,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>东睦股份</t>
+          <t>金安国纪</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -522,14 +523,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-15 10:34:32</t>
+          <t>2025-08-18 09:32:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>科达利</t>
+          <t>河钢股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -545,19 +546,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>科达利 没有持仓</t>
+          <t>河钢股份 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-15 10:34:40</t>
+          <t>2025-08-18 09:32:24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>百隆东方</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -569,23 +570,23 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-15 10:34:48</t>
+          <t>2025-08-18 09:32:37</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -601,75 +602,71 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>得邦照明 没有持仓</t>
+          <t>多氟多 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-15 10:34:56</t>
+          <t>2025-08-18 09:41:32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>立中集团</t>
+          <t>神州信息</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>立中集团 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-15 10:42:26</t>
+          <t>2025-08-18 09:48:19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>金诚信</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>金诚信 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-15 10:42:42</t>
+          <t>2025-08-18 09:48:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -677,27 +674,25 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入 双枪科技 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-15 11:15:00</t>
+          <t>2025-08-18 09:49:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -705,27 +700,25 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 多氟多 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-15 13:20:57</t>
+          <t>2025-08-18 09:49:16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -735,44 +728,350 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>买入 长江电力 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-15 17:42:01</t>
+          <t>2025-08-18 09:49:26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>中国电信</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>中国电信 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-15 17:42:08</t>
+          <t>2025-08-18 09:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>胜利股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>胜利股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>楚环科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>双箭股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>栖霞建设</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>栖霞建设 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>春兰股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>春兰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>福莱新材 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:25:44</t>
         </is>
       </c>
     </row>
@@ -782,6 +1081,169 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>鄂尔多斯</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>鄂尔多斯 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:32:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>振江股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:32:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-04 09:33:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1084,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2026,7 +2488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2385,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2464,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2997,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3104,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3323,7 +3785,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>科达利 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>得邦照明 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>立中集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金诚信</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金诚信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-15 11:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 多氟多 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 长江电力 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>中国电信</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>中国电信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:08</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3430,7 +4221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +4270,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>顺络电子</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3488,26 +4279,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-20.82</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>居然智家 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-14 09:32:10</t>
+          <t>2025-07-18 10:37:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>京北方</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3516,63 +4307,63 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>-22.32</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>京北方 没有持仓</t>
+          <t>恒基达鑫 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-14 09:54:41</t>
+          <t>2025-07-18 10:38:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>弘业期货</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.55</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>华孚时尚 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-14 09:56:05</t>
+          <t>2025-07-18 10:38:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>鲁西化工</t>
+          <t>航锦科技</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3584,7 +4375,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-14 10:31:23</t>
+          <t>2025-07-18 13:57:54</t>
         </is>
       </c>
     </row>
@@ -3593,170 +4384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-20.82</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>居然智家 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-18 10:37:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-22.32</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>恒基达鑫 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-18 10:38:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>华孚时尚 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-18 10:38:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:57:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4031,7 +4659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5815,281 +6443,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6156,54 +6509,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6219,19 +6572,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6240,26 +6593,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6268,26 +6621,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6303,19 +6656,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6331,40 +6684,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6374,6 +6727,281 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6900,7 +7528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6985,7 +7613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7037,7 +7665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7144,7 +7772,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:32:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>京北方</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>京北方 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:54:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:56:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:31:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7271,528 +8062,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-17.75</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>计算出的卖出数量不足100股: 0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:33:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>紫光股份</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:33:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>本钢板材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>本钢板材 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>农尚环境</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>农尚环境 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卫光生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:34:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>银轮股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-13 09:41:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>神州数码</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:20:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-13 10:21:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-13 13:37:38</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -7855,58 +8124,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7918,51 +8187,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7978,12 +8247,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -8041,35 +8310,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8078,7 +8347,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -8090,23 +8359,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -8118,63 +8387,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -8184,6 +8453,197 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8318,7 +8778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8515,6 +8975,337 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-17.75</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>计算出的卖出数量不足100股: 0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:33:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>本钢板材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>本钢板材 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>农尚环境</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>农尚环境 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>卖出 银轮股份 200.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-13 09:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-13 10:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-13 10:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-13 13:37:38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9316,7 +10107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9479,7 +10270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9782,7 +10573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10141,7 +10932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10330,167 +11121,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>鄂尔多斯</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>鄂尔多斯 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-04 09:32:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-04 09:32:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-04 09:32:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中设股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-04 09:33:04</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,41 +7,42 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-19" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,17 +503,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>金安国纪</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="b">
         <v>1</v>
       </c>
@@ -523,42 +522,40 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-18 09:32:07</t>
+          <t>2025-08-19 09:33:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>河钢股份</t>
+          <t>百大集团</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>河钢股份 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-18 09:32:24</t>
+          <t>2025-08-19 09:34:01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>百隆东方</t>
+          <t>宁水集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,9 +563,7 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="b">
         <v>1</v>
       </c>
@@ -579,14 +574,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-18 09:32:37</t>
+          <t>2025-08-19 09:34:11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>德龙汇能</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -602,90 +597,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>多氟多 没有持仓</t>
+          <t>德龙汇能 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-18 09:41:32</t>
+          <t>2025-08-19 09:34:25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>神州信息</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>双枪科技 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-18 09:48:19</t>
+          <t>2025-08-19 09:34:35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>龙星科技</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>龙星科技 没有持仓</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-18 09:48:30</t>
+          <t>2025-08-19 09:34:45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>汇洁股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>买入 双枪科技 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+          <t>汇洁股份 没有持仓</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-18 09:49:03</t>
+          <t>2025-08-19 09:34:56</t>
         </is>
       </c>
     </row>
@@ -697,80 +698,86 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>新大正 没有持仓</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-18 09:49:16</t>
+          <t>2025-08-19 09:35:06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>宁波富邦 没有持仓</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-18 09:49:26</t>
+          <t>2025-08-19 09:35:16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>扬州金泉</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>扬州金泉 没有持仓</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-18 09:49:37</t>
+          <t>2025-08-19 09:35:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>中科金财</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -782,23 +789,23 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>醋化股份 没有持仓</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-18 09:50:03</t>
+          <t>2025-08-19 09:35:37</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>胜利股份</t>
+          <t>园林股份</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -814,19 +821,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>胜利股份 没有持仓</t>
+          <t>园林股份 没有持仓</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-18 09:50:15</t>
+          <t>2025-08-19 09:35:47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>恒立液压</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -842,159 +849,151 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>楚环科技 没有持仓</t>
+          <t>恒立液压 没有持仓</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-18 09:50:28</t>
+          <t>2025-08-19 09:38:09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>双箭股份</t>
+          <t>海南华铁</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>双箭股份 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-18 09:50:41</t>
+          <t>2025-08-19 09:41:38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>福建金森</t>
+          <t>三柏硕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>福建金森 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-08-18 09:50:54</t>
+          <t>2025-08-19 10:14:37</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>栖霞建设</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>栖霞建设 没有持仓</t>
+          <t>买入 楚环科技 200 股失败: {'code': -32002, 'data': "Selector [className='android.widget.TextView', textMatches='.*买 入.*']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-08-18 09:51:10</t>
+          <t>2025-08-19 10:15:06</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>春兰股份</t>
+          <t>益盛药业</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>春兰股份 没有持仓</t>
+          <t>买入 益盛药业 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-08-18 09:51:15</t>
+          <t>2025-08-19 10:15:37</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>东睦股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入 恒大高新 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-08-18 10:10:25</t>
+          <t>2025-08-19 10:16:08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1002,76 +1001,18 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>18.44</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 金花股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-18 10:57:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>法拉电子</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>33</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-18 11:10:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>福莱新材 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-18 14:25:44</t>
+          <t>2025-08-19 10:16:39</t>
         </is>
       </c>
     </row>
@@ -1081,6 +1022,197 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>宝钛股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-05 10:16:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,7 +1841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2488,7 +2620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2847,7 +2979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2926,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3145,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3459,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3566,7 +3698,634 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:32:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>河钢股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>河钢股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:32:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>多氟多 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:41:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>神州信息</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:48:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:48:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入 双枪科技 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:49:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:49:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>中科金财</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>胜利股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>胜利股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>楚环科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>双箭股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>栖霞建设</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>栖霞建设 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:51:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>春兰股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>春兰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>法拉电子</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-18 11:10:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>福莱新材 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:25:44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3785,336 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>东睦股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:34:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>科达利</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>科达利 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:34:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>广宇集团</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:34:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>得邦照明</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>得邦照明 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:34:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>立中集团</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>立中集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:42:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>金诚信</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>金诚信 没有持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-15 10:42:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>金安国纪</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-15 11:15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 多氟多 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-15 13:20:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>长江电力</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>买入 长江电力 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-15 17:42:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>中国电信</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>中国电信 没有持仓</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-15 17:42:08</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4221,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4384,7 +4814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4659,7 +5089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6443,281 +6873,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6930,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6784,54 +6939,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6847,19 +7002,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6868,26 +7023,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6896,26 +7051,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6931,19 +7086,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6959,40 +7114,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -7002,6 +7157,281 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7528,7 +7958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7613,7 +8043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7665,7 +8095,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>东睦股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>科达利</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>科达利 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>得邦照明 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:34:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>立中集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>立中集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金诚信</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金诚信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-15 10:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>金安国纪</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-15 11:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 多氟多 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-15 13:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 长江电力 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>中国电信</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>中国电信 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-15 17:42:08</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7772,170 +8531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>顺络电子</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:32:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>京北方</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>京北方 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:54:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-14 09:56:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>鲁西化工</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-14 10:31:23</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8062,197 +8658,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -8315,58 +8720,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8378,51 +8783,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8438,12 +8843,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -8501,35 +8906,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8538,7 +8943,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -8550,23 +8955,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -8578,63 +8983,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -8644,6 +9049,197 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8778,7 +9374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8975,6 +9571,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>顺络电子</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:32:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>京北方</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>京北方 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:54:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-14 09:56:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>鲁西化工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-14 10:31:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9300,7 +10059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10107,7 +10866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10270,7 +11029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10573,7 +11332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10930,195 +11689,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宝钛股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>广晟有色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中设股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:32:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:54:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:16:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +428,2953 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>海南华铁 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>天润乳业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58:10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>嘉诚国际</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>嘉诚国际 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58:26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:59:54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：251505</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:14:32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>三木集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:27:28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>永安林业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:27:49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>广田集团</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>广田集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>瑞尔特 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>天禾股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>万里股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>恒尚节能 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：293235</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:38:53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 奥飞娱乐 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isFocused(UiObject2.java:468)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:75)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：157055</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：320189</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-26 10:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>海南华铁 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-26 13:58:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-26 13:59:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>三峰环境 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:05:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>爱普股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>爱普股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:05:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>威奥股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:06:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 梦网科技 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：86265</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:09:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>锐奇股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>浙江力诺 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>建研设计</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>建研设计 没有持仓</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>普莱得 没有持仓</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>森泰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>百川能源</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>百川能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>中持股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>高铁电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>美腾科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>友车科技</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>友车科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[120144][当前时间不允许此类证券交易][entrust_prop=0,en_entrust_prop=,4,8,Z,f,]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>湖北能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>双箭股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:28:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中山公用</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：78317</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25987</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金房能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27283</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>锐奇股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>浙江力诺 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>建研设计</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>建研设计 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>普莱得 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>森泰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>凤竹纺织 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:47:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>百川能源</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30480</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>恒尚节能 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>高铁电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:49:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>美腾科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:50:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>友车科技</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>友车科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:50:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：32525</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>点击确认按钮失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：33577</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>爱普股份</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:54:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +429,819 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25670</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25671</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:46:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：298986</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:32:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：324317</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：482046</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:28:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 14:43:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:04:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>合兴包装 没有持仓</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>龙星科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:06:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:06:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>嘉美包装 没有持仓</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:51:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1391,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2422,7 +3236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +4183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +430,2499 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12702</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13372</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14059</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14760</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15395</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:35:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:36:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17252</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17717</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18190</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18682</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:39:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:40:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21370</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21676</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21909</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22157</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22439</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22703</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22952</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23194</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23414</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23705</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23919</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24478</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26094</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26317</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26980</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:49:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：169293</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>买入 中体产业 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:53:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29530</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29714</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30087</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30261</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30411</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30630</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30799</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：31007</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:58:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：197303</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：33986</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:02:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:03:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:16:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:16:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:36:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>买入 创新医疗 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:38:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>东方锆业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>创新医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>中体产业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>百隆东方 没有持仓</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>33</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：392406</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:09:35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1236,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2205,7 +4699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3236,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4183,7 +6677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,6 +431,1207 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14855</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:34:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15515</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16160</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:35:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16822</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:36:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17471</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:36:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18056</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18622</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19761</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20091</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20382</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20704</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21011</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21369</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21697</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21966</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22269</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22614</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22934</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23244</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23565</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23880</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24783</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25087</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：165976</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：168413</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>北方股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>北方股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211071</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:55:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211071</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:55:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：398681</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:25:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2917,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3730,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4699,7 +5901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5730,7 +6932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6677,7 +7879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,13 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,6 +432,979 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>南山铝业</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>南山铝业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>安道麦A 没有持仓</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>买入 塔牌集团 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>买入 联发股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:38:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:52:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:54:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:54:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>嘉华生物科技股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:55:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>卖出 *ST星农 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-02 10:02:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-02 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:31:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>买入 福莱新材 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:32:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>买入 西藏矿业 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>楚江新材</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>驰宏锌锗</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>买入 驰宏锌锗 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>买入 永兴材料 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>大西洋</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>买入 大西洋 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>买入 首钢股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>买入 森特股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>江河集团</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>买入 江河集团 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>中毅达</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入 中毅达 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:25:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1626,7 +2600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4119,7 +5093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4932,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5901,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6932,7 +7906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7879,7 +8853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,1739 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12485</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12980</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:36:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13502</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:36:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13972</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14278</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14578</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14863</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15171</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15441</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15731</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16017</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16296</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16592</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16858</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17182</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17514</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17778</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18050</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18337</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:42:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18589</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20275</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:40:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:41:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：307</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>XD首创奥</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1399,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2600,7 +4334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5093,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5906,7 +7640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6875,7 +8609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7906,7 +9640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8853,7 +10587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +434,1969 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：10722</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11305</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11935</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12296</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12625</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12949</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13267</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13586</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13917</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：95676</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：97777</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：278230</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-04 10:53:51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:41:52</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:42:10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:42:27</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:42:44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:43:01</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:47:19</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>双枪科技 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:47:36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>农心科技 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:47:54</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>恒大高新 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:48:11</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>嘉美包装 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:48:29</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>天禾股份 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:48:46</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>宁波联合 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:49:04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>菲达环保 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>扬州金泉</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:49:21</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>扬州金泉 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:49:39</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>金海高科 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:49:56</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25175</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:50:16</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25369</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:50:32</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25550</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:06:58</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>茂化实华 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>神州信息</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:10:33</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>神州信息 没有持仓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>妙可蓝多</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:43</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>33</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:14</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>603***</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>92.89</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:08</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>换票 药明康德2025年08月22日主力资金流</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>用友网络</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>600***</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>33</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:05</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:30</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>000623</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-22 09:30</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>量化王策略信号 - 卖出</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-22 13:00:46</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2160,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3133,7 +5097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4334,7 +6298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6827,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7640,7 +9604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8609,7 +10573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9640,7 +11604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10585,994 +12549,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>理由</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:41:52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:42:10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:42:27</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:42:44</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:43:01</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:47:19</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>双枪科技 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:47:36</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>农心科技 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:47:54</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>恒大高新 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:48:11</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>嘉美包装 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:48:29</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>天禾股份 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:48:46</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>宁波联合 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:49:04</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>菲达环保 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>扬州金泉</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:49:21</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>扬州金泉 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:49:39</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>金海高科 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:49:56</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25175</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:50:16</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25369</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:50:32</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25550</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:06:58</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>茂化实华 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>神州信息</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:10:33</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>神州信息 没有持仓</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>妙可蓝多</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:43</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>止损 妙可蓝多2025年08月22日主力资金流</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>共进股份</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>13</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:14</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>交换机 天风证券-计算机行业AI算力系列之交换机：算力网络稳定“核心”，助力AI高效发展-250625</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>药明康德</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>603***</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>92.89</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:08</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>换票 药明康德2025年08月22日主力资金流</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>用友网络</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>600***</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F24" t="n">
-        <v>33</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-22 10:05</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ai应用 点评报告：“AI×数据×流程”原生一体加速企业AI落地</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华菱钢铁</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>000932</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:30</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>000623</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-22 09:30</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>量化王策略信号 - 卖出</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-22 13:00:46</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,7 +509,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：10722</t>
+          <t>委托已提交，合同号为：8652</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-04 09:33:33</t>
+          <t>2025-09-05 09:31:34</t>
         </is>
       </c>
     </row>
@@ -530,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -546,7 +547,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：11305</t>
+          <t>委托已提交，合同号为：9398</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -556,7 +557,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-04 09:34:04</t>
+          <t>2025-09-05 09:32:07</t>
         </is>
       </c>
     </row>
@@ -568,12 +569,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -584,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：11935</t>
+          <t>委托已提交，合同号为：9857</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -594,7 +595,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-04 09:34:37</t>
+          <t>2025-09-05 09:32:26</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>湖北能源</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -622,7 +623,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：12296</t>
+          <t>委托已提交，合同号为：10265</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -632,7 +633,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-04 09:34:58</t>
+          <t>2025-09-05 09:32:46</t>
         </is>
       </c>
     </row>
@@ -644,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +661,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：12625</t>
+          <t>委托已提交，合同号为：10650</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -670,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-04 09:35:18</t>
+          <t>2025-09-05 09:33:07</t>
         </is>
       </c>
     </row>
@@ -682,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -698,7 +699,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：12949</t>
+          <t>委托已提交，合同号为：11035</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -708,7 +709,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-04 09:35:37</t>
+          <t>2025-09-05 09:33:27</t>
         </is>
       </c>
     </row>
@@ -720,7 +721,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -736,7 +737,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13267</t>
+          <t>委托已提交，合同号为：11344</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -746,7 +747,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-04 09:35:57</t>
+          <t>2025-09-05 09:33:47</t>
         </is>
       </c>
     </row>
@@ -758,7 +759,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -774,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13586</t>
+          <t>未找到弹窗内容</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -784,7 +785,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-04 09:36:18</t>
+          <t>2025-09-05 09:34:08</t>
         </is>
       </c>
     </row>
@@ -796,7 +797,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -812,7 +813,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13917</t>
+          <t>未检测到'委托确认'提示</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -822,24 +823,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-04 09:36:38</t>
+          <t>2025-09-05 09:34:23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>辽宁成大</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -850,34 +851,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>辽宁成大 没有持仓</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-04 09:36:59</t>
+          <t>2025-09-05 09:38:51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>南山控股</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -888,34 +889,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>南山控股 没有持仓</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-04 09:37:18</t>
+          <t>2025-09-05 09:39:07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>首钢股份</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -926,34 +927,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>首钢股份 没有持仓</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-04 09:37:37</t>
+          <t>2025-09-05 09:39:22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>首创奥莱</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -964,29 +965,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/dialog_title']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-04 09:37:57</t>
+          <t>2025-09-05 10:02:17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>包钢股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1002,29 +1003,29 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：379149</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-04 09:38:16</t>
+          <t>2025-09-05 10:02:35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>ST中装</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1040,29 +1041,29 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>-150905360[-150905372]该证券账户[0380791515]无此权限[开通风险警示证券买入]!</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-04 09:38:36</t>
+          <t>2025-09-05 10:02:56</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>国晟科技</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1078,29 +1079,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：382726</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-04 09:38:55</t>
+          <t>2025-09-05 10:03:14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>西部矿业</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1116,29 +1117,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：384469</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-04 09:39:14</t>
+          <t>2025-09-05 10:03:33</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1154,29 +1155,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：386497</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-04 09:39:34</t>
+          <t>2025-09-05 10:03:56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>广宇集团</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1192,29 +1193,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：169351</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-04 09:39:53</t>
+          <t>2025-09-05 10:05:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>精工钢构</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1230,29 +1231,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：170142</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-04 09:40:12</t>
+          <t>2025-09-05 10:05:30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>城建发展</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1268,7 +1269,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：95676</t>
+          <t>委托已提交，合同号为：170953</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1278,19 +1279,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-04 09:40:36</t>
+          <t>2025-09-05 10:05:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LHW-九凤鸣岐</t>
+          <t>赛-短线趋势题材</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>得邦照明</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1299,7 +1300,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1316,19 +1317,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-04 09:40:47</t>
+          <t>2025-09-05 10:14:01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>精工钢构</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1337,14 +1338,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：97777</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1354,19 +1355,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-04 09:41:03</t>
+          <t>2025-09-05 10:36:07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>吉林敖东</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1382,7 +1383,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：278230</t>
+          <t>长电科技 没有持仓</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1392,7 +1393,45 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-04 10:53:51</t>
+          <t>2025-09-05 13:43:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大智慧</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:57:51</t>
         </is>
       </c>
     </row>
@@ -1402,6 +1441,953 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>中山公用</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：78317</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>共进股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:38:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25987</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金房能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:43:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27283</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>锐奇股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:45:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>浙江力诺 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>建研设计</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>建研设计 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>普莱得 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:46:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>森泰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>凤竹纺织 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:47:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>百川能源</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30480</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>恒尚节能 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:48:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>高铁电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:49:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>美腾科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:50:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>友车科技</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>友车科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:50:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：32525</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>点击确认按钮失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：33577</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:52:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>爱普股份</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-08-25 09:54:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,6 +3383,979 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：10722</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11305</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11935</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12296</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12625</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12949</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13267</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13586</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13917</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：95676</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：97777</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：278230</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-04 10:53:51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,7 +6083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5097,7 +7056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6298,7 +8257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8791,7 +10750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9604,7 +11563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10573,7 +12532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11602,951 +13561,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：78317</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:32:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:32:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>共进股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:35:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:38:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25987</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:43:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>金房能源 没有持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:43:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:43:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：27283</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:44:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>新宏泽 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:44:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>锐奇股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:45:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>浙矿股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:45:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>浙江力诺 没有持仓</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:46:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>建研设计</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>建研设计 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:46:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>普莱得 没有持仓</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:46:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>森泰股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:47:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>凤竹纺织 没有持仓</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:47:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>百川能源</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30480</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:48:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>恒尚节能 没有持仓</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:48:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:49:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>高铁电气 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>美腾科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:50:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>友车科技</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>友车科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:50:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：32525</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:51:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:51:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>点击确认按钮失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:51:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:52:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：33577</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:52:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:52:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:53:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>爱普股份</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:53:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:53:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-08-25 09:54:10</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +489,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组-逻辑为王</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>特发信息</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -509,34 +510,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：8652</t>
+          <t>特发信息 没有持仓</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-05 09:31:34</t>
+          <t>2025-09-08 09:34:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,29 +548,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：9398</t>
+          <t>委托已提交，合同号为：79988</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-05 09:32:07</t>
+          <t>2025-09-08 09:35:06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>中绿电</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,29 +586,29 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：9857</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-05 09:32:26</t>
+          <t>2025-09-08 09:35:19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>LHW-穷奇踏焰</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖北能源</t>
+          <t>三钢闽光</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,17 +624,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：10265</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-05 09:32:46</t>
+          <t>2025-09-08 09:35:31</t>
         </is>
       </c>
     </row>
@@ -645,12 +646,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -661,7 +662,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：10650</t>
+          <t>委托已提交，合同号为：28107</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -671,7 +672,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-05 09:33:07</t>
+          <t>2025-09-08 09:51:54</t>
         </is>
       </c>
     </row>
@@ -683,12 +684,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -699,7 +700,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：11035</t>
+          <t>委托已提交，合同号为：28502</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -709,7 +710,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-05 09:33:27</t>
+          <t>2025-09-08 09:52:27</t>
         </is>
       </c>
     </row>
@@ -721,12 +722,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -737,7 +738,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：11344</t>
+          <t>委托已提交，合同号为：28841</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -747,7 +748,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-05 09:33:47</t>
+          <t>2025-09-08 09:53:02</t>
         </is>
       </c>
     </row>
@@ -759,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +776,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未找到弹窗内容</t>
+          <t>委托已提交，合同号为：29047</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -785,7 +786,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-05 09:34:08</t>
+          <t>2025-09-08 09:53:21</t>
         </is>
       </c>
     </row>
@@ -797,7 +798,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>合富中国</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -813,7 +814,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未检测到'委托确认'提示</t>
+          <t>委托已提交，合同号为：29251</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -823,24 +824,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-05 09:34:23</t>
+          <t>2025-09-08 09:53:41</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>辽宁成大</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -851,34 +852,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>辽宁成大 没有持仓</t>
+          <t>委托已提交，合同号为：29438</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-05 09:38:51</t>
+          <t>2025-09-08 09:54:02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南山控股</t>
+          <t>浩物股份</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -889,34 +890,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>南山控股 没有持仓</t>
+          <t>委托已提交，合同号为：29603</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-05 09:39:07</t>
+          <t>2025-09-08 09:54:22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>首钢股份</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -927,34 +928,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>首钢股份 没有持仓</t>
+          <t>委托已提交，合同号为：29813</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-05 09:39:22</t>
+          <t>2025-09-08 09:54:44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>首创奥莱</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -965,29 +966,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/dialog_title']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：30010</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-05 10:02:17</t>
+          <t>2025-09-08 09:55:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>包钢股份</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1003,29 +1004,29 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：379149</t>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-05 10:02:35</t>
+          <t>2025-09-08 09:55:43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ST中装</t>
+          <t>莫高股份</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1041,29 +1042,29 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-150905360[-150905372]该证券账户[0380791515]无此权限[开通风险警示证券买入]!</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-05 10:02:56</t>
+          <t>2025-09-08 09:56:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>国晟科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1079,34 +1080,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：382726</t>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-05 10:03:14</t>
+          <t>2025-09-08 09:57:09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西部矿业</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1117,29 +1118,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：384469</t>
+          <t>委托已提交，合同号为：31880</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-05 10:03:33</t>
+          <t>2025-09-08 09:58:36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江西铜业</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1155,29 +1156,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：386497</t>
+          <t>委托已提交，合同号为：32029</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-05 10:03:56</t>
+          <t>2025-09-08 09:58:57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1193,29 +1194,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：169351</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-05 10:05:10</t>
+          <t>2025-09-08 09:59:19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>精工钢构</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1231,29 +1232,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：170142</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-05 10:05:30</t>
+          <t>2025-09-08 09:59:59</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>城建发展</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1269,29 +1270,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：170953</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-05 10:05:51</t>
+          <t>2025-09-08 10:00:31</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>赛-短线趋势题材</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>爱婴室</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1300,36 +1301,36 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-05 10:14:01</t>
+          <t>2025-09-08 10:00:54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1338,41 +1339,41 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-05 10:36:07</t>
+          <t>2025-09-08 10:01:14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1383,55 +1384,1271 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>长电科技 没有持仓</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-05 13:43:37</t>
+          <t>2025-09-08 10:01:33</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:01:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:03:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：195875</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：197227</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:05:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>城建发展</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：198574</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:05:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：200589</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:06:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：201799</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：202958</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：204112</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>卖出 蔚蓝锂芯 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:08:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>中山公用</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：206469</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:08:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：207569</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：208391</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：209073</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：209800</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：210546</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211503</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:47:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:28:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>西部矿业</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:28:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/ok_btn'},))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:29:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>国晟科技</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:30:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>常宝股份</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>武进不锈</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>鸿路钢构</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>盛达资源</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>中钨高新</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>博威合金</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>组-逻辑为王</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大智慧</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>数据港</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>33</v>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>中泰证券</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-09-05 13:57:51</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-09-08 13:10:52</t>
         </is>
       </c>
     </row>
@@ -1441,6 +2658,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 奥飞娱乐 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isFocused(UiObject2.java:468)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:75)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：157055</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-26 09:45:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：320189</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-26 10:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>海南华铁 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-26 13:58:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-26 13:59:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>三峰环境 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:05:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>爱普股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>爱普股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:05:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>威奥股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:06:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:06:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 梦网科技 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：86265</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:07:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:08:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:09:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-26 14:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>锐奇股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>浙江力诺 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>建研设计</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>建研设计 没有持仓</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>普莱得</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>普莱得 没有持仓</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>森泰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>百川能源</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>百川能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>中持股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>高铁电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>美腾科技</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>美腾科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>友车科技</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>友车科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[120144][当前时间不允许此类证券交易][entrust_prop=0,en_entrust_prop=,4,8,Z,f,]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>湖北能源 没有持仓</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>双箭股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-08-26 15:28:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2387,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3383,6 +5631,1017 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：8652</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:31:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：9398</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:32:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：9857</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:32:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：10265</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:32:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：10650</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11035</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11344</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:34:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:34:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>辽宁成大</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>辽宁成大 没有持仓</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:38:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>南山控股</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>南山控股 没有持仓</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:39:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>首钢股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-05 09:39:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/dialog_title']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：379149</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ST中装</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-150905360[-150905372]该证券账户[0380791515]无此权限[开通风险警示证券买入]!</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:02:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>国晟科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：382726</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:03:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>西部矿业</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：384469</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:03:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：386497</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:03:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：169351</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:05:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：170142</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>城建发展</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：170953</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:05:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>赛-短线趋势题材</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>49</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>特发信息</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>33</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-05 10:36:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>长电科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:43:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大智慧</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>33</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:57:51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4350,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6083,7 +9342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7056,7 +10315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8257,7 +11516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10750,7 +14009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11563,7 +14822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12530,1035 +15789,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>卖出 奥飞娱乐 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isFocused(UiObject2.java:468)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:75)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-26 09:42:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>锐明技术</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-26 09:44:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：157055</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-26 09:45:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>爱婴室</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：320189</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-26 10:45:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南华铁</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>海南华铁 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-26 13:58:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>均胜电子</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-26 13:59:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>三峰环境 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:05:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>爱普股份</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>爱普股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:05:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>威奥股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:06:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:06:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 梦网科技 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:07:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：86265</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:07:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:07:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:07:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:08:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:08:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:08:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:09:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-26 14:09:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>锐奇股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:11:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>浙矿股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:11:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>浙江力诺 没有持仓</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:11:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>建研设计</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>建研设计 没有持仓</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:12:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>普莱得</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>普莱得 没有持仓</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:12:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>森泰股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:13:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>百川能源</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>百川能源 没有持仓</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:13:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>中持股份</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>中持股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:13:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>高铁电气 没有持仓</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:14:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>美腾科技</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>美腾科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:14:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>友车科技</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>友车科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:14:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>[120144][当前时间不允许此类证券交易][entrust_prop=0,en_entrust_prop=,4,8,Z,f,]</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>湖北能源</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>湖北能源 没有持仓</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:27:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>三柏硕</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>三柏硕 没有持仓</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:27:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>双箭股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:27:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>新宏泽 没有持仓</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-08-26 15:28:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,18 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +490,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组-逻辑为王</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>特发信息</t>
+          <t>世龙实业</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,34 +511,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>特发信息 没有持仓</t>
+          <t>委托已提交，合同号为：4071</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-08 09:34:50</t>
+          <t>2025-09-09 09:24:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -548,34 +549,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：79988</t>
+          <t>委托已提交，合同号为：8010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-08 09:35:06</t>
+          <t>2025-09-09 09:31:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中绿电</t>
+          <t>浩物股份</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -586,34 +587,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>卖出 浩物股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-08 09:35:19</t>
+          <t>2025-09-09 09:31:54</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LHW-穷奇踏焰</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>三钢闽光</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -624,17 +625,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交，合同号为：9895</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-08 09:35:31</t>
+          <t>2025-09-09 09:32:29</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>万里股份</t>
+          <t>春雪食品</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,7 +663,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28107</t>
+          <t>卖出 春雪食品 100 股失败: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -672,7 +673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-08 09:51:54</t>
+          <t>2025-09-09 09:35:17</t>
         </is>
       </c>
     </row>
@@ -684,7 +685,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28502</t>
+          <t>委托已提交，合同号为：13949</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -710,7 +711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-08 09:52:27</t>
+          <t>2025-09-09 09:36:13</t>
         </is>
       </c>
     </row>
@@ -722,7 +723,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>湖北能源</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -738,7 +739,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28841</t>
+          <t>委托已提交，合同号为：14479</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -748,7 +749,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-08 09:53:02</t>
+          <t>2025-09-09 09:36:46</t>
         </is>
       </c>
     </row>
@@ -776,7 +777,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29047</t>
+          <t>委托已提交，合同号为：14762</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-08 09:53:21</t>
+          <t>2025-09-09 09:37:06</t>
         </is>
       </c>
     </row>
@@ -814,7 +815,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29251</t>
+          <t>委托已提交，合同号为：15043</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -824,7 +825,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-08 09:53:41</t>
+          <t>2025-09-09 09:37:24</t>
         </is>
       </c>
     </row>
@@ -836,7 +837,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -852,7 +853,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29438</t>
+          <t>委托已提交，合同号为：15306</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -862,7 +863,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-08 09:54:02</t>
+          <t>2025-09-09 09:37:44</t>
         </is>
       </c>
     </row>
@@ -874,7 +875,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>浩物股份</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -890,7 +891,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29603</t>
+          <t>委托已提交，合同号为：15591</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -900,7 +901,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-08 09:54:22</t>
+          <t>2025-09-09 09:38:04</t>
         </is>
       </c>
     </row>
@@ -928,7 +929,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29813</t>
+          <t>委托已提交，合同号为：15848</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -938,7 +939,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-08 09:54:44</t>
+          <t>2025-09-09 09:38:24</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：30010</t>
+          <t>委托已提交，合同号为：16110</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -976,7 +977,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-08 09:55:03</t>
+          <t>2025-09-09 09:38:44</t>
         </is>
       </c>
     </row>
@@ -988,7 +989,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：16390</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1014,7 +1015,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-08 09:55:43</t>
+          <t>2025-09-09 09:39:04</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>莫高股份</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1042,7 +1043,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>委托已提交，合同号为：16644</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1052,7 +1053,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-08 09:56:30</t>
+          <t>2025-09-09 09:39:24</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1065,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1080,7 +1081,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：16945</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1090,7 +1091,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-08 09:57:09</t>
+          <t>2025-09-09 09:39:45</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1103,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1118,7 +1119,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：31880</t>
+          <t>委托已提交，合同号为：17206</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1128,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-08 09:58:36</t>
+          <t>2025-09-09 09:40:05</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1141,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合富中国</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1156,7 +1157,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：32029</t>
+          <t>委托已提交，合同号为：17498</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1166,7 +1167,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-08 09:58:57</t>
+          <t>2025-09-09 09:40:25</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1179,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1194,7 +1195,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1772.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1204,7 +1205,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-08 09:59:19</t>
+          <t>2025-09-09 09:40:46</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1217,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1232,7 +1233,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1731.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1242,7 +1243,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-08 09:59:59</t>
+          <t>2025-09-09 09:41:05</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1270,7 +1271,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2160.38,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1280,7 +1281,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-08 10:00:31</t>
+          <t>2025-09-09 09:41:27</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1308,7 +1309,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2615.42,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1318,19 +1319,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-08 10:00:54</t>
+          <t>2025-09-09 09:41:45</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>博威合金</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1346,17 +1347,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-08 10:01:14</t>
+          <t>2025-09-09 09:42:23</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1369,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1384,7 +1385,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>委托已提交，合同号为：22238</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1394,24 +1395,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-08 10:01:33</t>
+          <t>2025-09-09 09:47:07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>华菱钢铁</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1422,17 +1423,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>委托已提交，合同号为：192214</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-08 10:01:53</t>
+          <t>2025-09-09 10:09:04</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1445,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1460,7 +1461,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>委托已提交，合同号为：75997</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1470,24 +1471,24 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-08 10:03:04</t>
+          <t>2025-09-09 14:08:34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>广宇集团</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1498,34 +1499,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：195875</t>
+          <t>委托已提交，合同号为：76054</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-08 10:04:37</t>
+          <t>2025-09-09 14:08:55</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中体产业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1536,34 +1537,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：197227</t>
+          <t>委托已提交，合同号为：76129</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-08 10:05:08</t>
+          <t>2025-09-09 14:09:13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>城建发展</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1574,34 +1575,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：198574</t>
+          <t>委托已提交，合同号为：76197</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-08 10:05:40</t>
+          <t>2025-09-09 14:09:34</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1612,34 +1613,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>委托已提交，合同号为：76275</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-08 10:06:01</t>
+          <t>2025-09-09 14:09:54</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>精工钢构</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1650,1005 +1651,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：200589</t>
+          <t>委托已提交，合同号为：76350</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-08 10:06:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：201799</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>百隆东方</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：202958</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:07:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>精达股份</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：204112</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:07:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>卖出 蔚蓝锂芯 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:08:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>中山公用</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：206469</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:08:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>卫光生物</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：207569</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:09:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>深桑达A</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：208391</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:09:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>锦江在线</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：209073</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:10:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>飞龙股份</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：209800</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:10:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：210546</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:10:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：211503</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:11:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>首创奥莱</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:26:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>锦江在线</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>卖出数量计算失败</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:47:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>卖出数量计算失败</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:48:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:28:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>西部矿业</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:28:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>江西铜业</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>处理弹窗时发生异常: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/ok_btn'},))</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:29:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>国晟科技</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:30:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>常宝股份</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:31:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>武进不锈</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:31:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>鸿路钢构</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:31:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>盛达资源</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:31:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>中钨高新</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:32:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>博威合金</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:32:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:35:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>数据港</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>33</v>
-      </c>
-      <c r="E58" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:10:52</t>
+          <t>2025-09-09 14:10:15</t>
         </is>
       </c>
     </row>
@@ -2658,6 +1671,975 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>海南华铁</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>海南华铁 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>天润乳业</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:57:58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58:10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>嘉诚国际</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>嘉诚国际 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:58:26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>均胜电子</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-27 09:59:54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：251505</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:14:32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>三木集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:27:28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>永安林业</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>永安林业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:27:49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>广田集团</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>广田集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>瑞尔特 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>天禾股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>天禾股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:28:51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>万里股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>恒尚节能 没有持仓</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:29:51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:30:49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：293235</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:31:46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:32:35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-27 10:38:53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3688,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4635,7 +4617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5631,6 +5613,2233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>特发信息</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>特发信息 没有持仓</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:34:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：79988</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:35:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>中绿电</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:35:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:35:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28107</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:51:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28502</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:52:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28841</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:53:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29047</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29251</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:53:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29438</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:54:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29603</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:54:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29813</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30010</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:55:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:55:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>莫高股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:56:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:57:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：31880</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:58:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：32029</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:58:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:59:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-08 09:59:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:01:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:01:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:03:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>广宇集团</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：195875</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：197227</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:05:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>城建发展</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：198574</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:05:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:06:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：200589</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:06:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：201799</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：202958</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：204112</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:07:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>卖出 蔚蓝锂芯 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:08:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>中山公用</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：206469</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:08:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>卫光生物</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：207569</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：208391</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：209073</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：209800</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：210546</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:10:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211503</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:26:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>锦江在线</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:47:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-09-08 10:48:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:28:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>西部矿业</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:28:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/ok_btn'},))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:29:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>国晟科技</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:30:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>常宝股份</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>武进不锈</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>鸿路钢构</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>盛达资源</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:31:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>中钨高新</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>博威合金</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-09-08 11:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>数据港</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>33</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-09-08 13:10:52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6636,7 +8845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7609,7 +9818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9342,7 +11551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10315,7 +12524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11516,7 +13725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14009,7 +16218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14820,973 +17029,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>海南华铁</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>海南华铁 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:57:34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>飞龙股份</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:57:46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>天润乳业</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:57:58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>丰元股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:58:10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>嘉诚国际</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>嘉诚国际 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:58:26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>均胜电子</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-27 09:59:54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>三花智控</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：251505</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:14:32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>三木集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:27:28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>永安林业</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>永安林业 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:27:49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>广田集团</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>广田集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:28:10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>瑞尔特 没有持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:28:30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>天禾股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>天禾股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:28:51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>万里股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:29:12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>恒尚节能 没有持仓</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:29:33</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:29:51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:30:09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:30:33</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:30:49</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:31:09</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:31:24</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：293235</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:31:26</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:31:46</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:32:03</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:32:21</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>御银股份</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:32:35</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>通富微电</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-08-27 10:38:53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,19 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,7 +512,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：4071</t>
+          <t>卖出 新大正 500 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,7 +522,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-09 09:24:52</t>
+          <t>2025-09-10 09:35:11</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>梅轮电梯</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -549,7 +550,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：8010</t>
+          <t>委托已提交，合同号为：13385</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -559,7 +560,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-09 09:31:12</t>
+          <t>2025-09-10 09:36:20</t>
         </is>
       </c>
     </row>
@@ -571,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>浩物股份</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,7 +588,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>卖出 浩物股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：14558</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +598,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-09 09:31:54</t>
+          <t>2025-09-10 09:37:22</t>
         </is>
       </c>
     </row>
@@ -609,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,7 +626,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：9895</t>
+          <t>委托已提交，合同号为：15540</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -635,7 +636,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-09 09:32:29</t>
+          <t>2025-09-10 09:38:26</t>
         </is>
       </c>
     </row>
@@ -647,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>春雪食品</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +664,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>卖出 春雪食品 100 股失败: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：16396</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -673,7 +674,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-09 09:35:17</t>
+          <t>2025-09-10 09:39:42</t>
         </is>
       </c>
     </row>
@@ -685,7 +686,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>浩物股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -701,7 +702,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13949</t>
+          <t>委托已提交，合同号为：17348</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -711,7 +712,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-09 09:36:13</t>
+          <t>2025-09-10 09:40:46</t>
         </is>
       </c>
     </row>
@@ -723,7 +724,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>湖北能源</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14479</t>
+          <t>委托已提交，合同号为：18087</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-09 09:36:46</t>
+          <t>2025-09-10 09:41:48</t>
         </is>
       </c>
     </row>
@@ -761,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,7 +778,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14762</t>
+          <t>委托已提交，合同号为：18321</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -787,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-09 09:37:06</t>
+          <t>2025-09-10 09:42:09</t>
         </is>
       </c>
     </row>
@@ -799,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15043</t>
+          <t>委托已提交，合同号为：18592</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-09 09:37:24</t>
+          <t>2025-09-10 09:42:30</t>
         </is>
       </c>
     </row>
@@ -837,7 +838,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -853,7 +854,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15306</t>
+          <t>委托已提交，合同号为：18827</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -863,7 +864,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-09 09:37:44</t>
+          <t>2025-09-10 09:42:51</t>
         </is>
       </c>
     </row>
@@ -875,7 +876,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +892,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15591</t>
+          <t>委托已提交，合同号为：19073</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -901,7 +902,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-09 09:38:04</t>
+          <t>2025-09-10 09:43:12</t>
         </is>
       </c>
     </row>
@@ -913,7 +914,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -929,7 +930,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15848</t>
+          <t>委托已提交，合同号为：19325</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -939,7 +940,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-09 09:38:24</t>
+          <t>2025-09-10 09:43:36</t>
         </is>
       </c>
     </row>
@@ -951,7 +952,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -967,7 +968,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16110</t>
+          <t>委托已提交，合同号为：19577</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -977,7 +978,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-09 09:38:44</t>
+          <t>2025-09-10 09:44:01</t>
         </is>
       </c>
     </row>
@@ -989,7 +990,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1005,7 +1006,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16390</t>
+          <t>委托已提交，合同号为：19886</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-09 09:39:04</t>
+          <t>2025-09-10 09:44:19</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1028,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1043,7 +1044,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16644</t>
+          <t>委托已提交，合同号为：20120</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1053,7 +1054,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-09 09:39:24</t>
+          <t>2025-09-10 09:44:51</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,7 +1082,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16945</t>
+          <t>委托已提交，合同号为：20451</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1091,7 +1092,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-09 09:39:45</t>
+          <t>2025-09-10 09:45:11</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1119,7 +1120,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：17206</t>
+          <t>委托已提交，合同号为：20679</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1129,7 +1130,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-09 09:40:05</t>
+          <t>2025-09-10 09:45:33</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1142,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>菲林格尔</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1157,7 +1158,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：17498</t>
+          <t>委托已提交，合同号为：21217</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1167,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-09 09:40:25</t>
+          <t>2025-09-10 09:46:39</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1195,7 +1196,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1772.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=5917.70,v_enable_balance_t=1249.83] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1205,24 +1206,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-09 09:40:46</t>
+          <t>2025-09-10 09:47:07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>盛达资源</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1233,34 +1234,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1731.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>委托已提交，合同号为：296993</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-09 09:41:05</t>
+          <t>2025-09-10 09:50:51</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>中钨高新</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1271,29 +1272,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2160.38,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>委托已提交，合同号为：299849</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-09 09:41:27</t>
+          <t>2025-09-10 09:51:24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1309,17 +1310,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2615.42,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>委托已提交，合同号为：303250</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-09 09:41:45</t>
+          <t>2025-09-10 09:51:44</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1332,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>博威合金</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1347,7 +1348,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>您的资金余额不足，请通过银证转账转入资金</t>
+          <t>委托已提交，合同号为：305404</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1357,19 +1358,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-09 09:42:23</t>
+          <t>2025-09-10 09:52:09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>厦门钨业</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1385,17 +1386,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：22238</t>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-09 09:47:07</t>
+          <t>2025-09-10 09:52:29</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1408,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>华菱钢铁</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1423,7 +1424,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：192214</t>
+          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1433,62 +1434,62 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-09 10:09:04</t>
+          <t>2025-09-10 09:57:09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>合富中国</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：75997</t>
+          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 1}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-09 14:08:34</t>
+          <t>2025-09-10 09:57:10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>数据港</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1499,17 +1500,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：76054</t>
+          <t>委托已提交，合同号为：151843</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-09 14:08:55</t>
+          <t>2025-09-10 09:59:27</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1522,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1537,7 +1538,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：76129</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1547,7 +1548,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-09 14:09:13</t>
+          <t>2025-09-10 11:50:02</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1560,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1575,7 +1576,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：76197</t>
+          <t>买入 大龙地产 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1585,7 +1586,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-09 14:09:34</t>
+          <t>2025-09-10 13:45:33</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1598,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1613,7 +1614,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：76275</t>
+          <t>委托已提交，合同号为：68315</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1623,7 +1624,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-09 14:09:54</t>
+          <t>2025-09-10 13:45:51</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1636,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1651,7 +1652,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：76350</t>
+          <t>委托已提交，合同号为：68390</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1661,7 +1662,45 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-09 14:10:15</t>
+          <t>2025-09-10 13:46:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足][fund_account=8526331,money_type=0,p_occur_balance=466.24,v_enable_balance_t=443.36] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-10 13:46:32</t>
         </is>
       </c>
     </row>
@@ -1671,6 +1710,819 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>三花智控</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25670</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:46:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>通富微电</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25671</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 09:46:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：298986</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>逻辑为王</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:32:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：324317</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 10:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：482046</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 13:28:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 14:43:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:04:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>合兴包装</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>合兴包装 没有持仓</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:05:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>龙星科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>龙星科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:06:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:06:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>嘉美包装 没有持仓</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>浙矿股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>浙矿股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:45:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:51:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2639,7 +3491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3670,7 +4522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4617,7 +5469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5613,6 +6465,1245 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：4071</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：8010</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:31:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>卖出 浩物股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:31:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：9895</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>卖出 春雪食品 100 股失败: {'code': -32002, 'data': "Selector [className='android.widget.TextView', instance=2]", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:35:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13949</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:36:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14479</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:36:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14762</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15043</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15306</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:37:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15591</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15848</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16110</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:38:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16390</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16644</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16945</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:39:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17206</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17498</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1772.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=1731.35,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2160.38,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=2615.42,v_enable_balance_t=326.25] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:41:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>博威合金</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:42:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22238</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>华菱钢铁</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：192214</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-09 10:09:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：75997</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:08:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：76054</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：76129</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：76197</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:09:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：76275</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：76350</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-09 14:10:15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7834,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8845,7 +10936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9818,7 +11909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11551,7 +13642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12524,7 +14615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13725,7 +15816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16216,817 +18307,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>三花智控</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25670</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-28 09:46:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>通富微电</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25671</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-28 09:46:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：298986</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:29:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>逻辑为王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:32:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>33</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：324317</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-28 10:42:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>丰元股份</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：482046</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-28 13:28:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-28 14:43:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:04:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:04:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>合兴包装</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>合兴包装 没有持仓</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:05:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>龙星科技</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>龙星科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:05:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:06:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>福建金森</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>福建金森 没有持仓</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:06:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:07:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:07:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>嘉美包装 没有持仓</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:07:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>浙矿股份</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>浙矿股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:08:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:45:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:46:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-28 16:51:58</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,20 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +492,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -512,34 +513,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>卖出 新大正 500 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+          <t>委托已提交，合同号为：52239</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-10 09:35:11</t>
+          <t>2025-09-11 09:31:36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>立讯精密</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -550,34 +551,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13385</t>
+          <t>委托已提交，合同号为：55642</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-10 09:36:20</t>
+          <t>2025-09-11 09:32:04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>厦门钨业</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -588,17 +589,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14558</t>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-10 09:37:22</t>
+          <t>2025-09-11 09:35:49</t>
         </is>
       </c>
     </row>
@@ -610,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15540</t>
+          <t>委托已提交，合同号为：24079</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -636,7 +637,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-10 09:38:26</t>
+          <t>2025-09-11 09:47:35</t>
         </is>
       </c>
     </row>
@@ -648,7 +649,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -664,7 +665,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16396</t>
+          <t>委托已提交，合同号为：24578</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -674,7 +675,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-10 09:39:42</t>
+          <t>2025-09-11 09:48:12</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>浩物股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,7 +703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：17348</t>
+          <t>委托已提交，合同号为：25035</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -712,7 +713,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-10 09:40:46</t>
+          <t>2025-09-11 09:48:51</t>
         </is>
       </c>
     </row>
@@ -724,7 +725,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,7 +741,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18087</t>
+          <t>委托已提交，合同号为：25438</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -750,7 +751,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-10 09:41:48</t>
+          <t>2025-09-11 09:49:33</t>
         </is>
       </c>
     </row>
@@ -762,12 +763,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -778,7 +779,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18321</t>
+          <t>委托已提交，合同号为：25839</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -788,7 +789,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-10 09:42:09</t>
+          <t>2025-09-11 09:50:12</t>
         </is>
       </c>
     </row>
@@ -800,12 +801,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -816,7 +817,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18592</t>
+          <t>委托已提交，合同号为：26238</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-10 09:42:30</t>
+          <t>2025-09-11 09:50:52</t>
         </is>
       </c>
     </row>
@@ -838,12 +839,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -854,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18827</t>
+          <t>委托已提交，合同号为：26633</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -864,7 +865,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-10 09:42:51</t>
+          <t>2025-09-11 09:51:47</t>
         </is>
       </c>
     </row>
@@ -876,12 +877,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>菲林格尔</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -892,7 +893,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19073</t>
+          <t>委托已提交，合同号为：27202</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -902,7 +903,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-10 09:43:12</t>
+          <t>2025-09-11 09:52:31</t>
         </is>
       </c>
     </row>
@@ -914,12 +915,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -930,7 +931,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19325</t>
+          <t>委托已提交，合同号为：27599</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-10 09:43:36</t>
+          <t>2025-09-11 09:53:13</t>
         </is>
       </c>
     </row>
@@ -952,7 +953,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -968,7 +969,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19577</t>
+          <t>委托已提交，合同号为：27790</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -978,7 +979,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-10 09:44:01</t>
+          <t>2025-09-11 09:53:32</t>
         </is>
       </c>
     </row>
@@ -990,7 +991,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1006,7 +1007,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19886</t>
+          <t>委托已提交，合同号为：27954</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-10 09:44:19</t>
+          <t>2025-09-11 09:53:53</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1029,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1044,7 +1045,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20120</t>
+          <t>委托已提交，合同号为：28139</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1054,7 +1055,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-10 09:44:51</t>
+          <t>2025-09-11 09:54:14</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1067,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1082,7 +1083,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20451</t>
+          <t>委托已提交，合同号为：28347</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1092,7 +1093,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-10 09:45:11</t>
+          <t>2025-09-11 09:54:38</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1120,7 +1121,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20679</t>
+          <t>委托已提交，合同号为：28526</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-10 09:45:33</t>
+          <t>2025-09-11 09:54:57</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1143,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>菲林格尔</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1158,7 +1159,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：21217</t>
+          <t>委托已提交，合同号为：28684</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1168,7 +1169,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-10 09:46:39</t>
+          <t>2025-09-11 09:55:22</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1181,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1196,7 +1197,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=5917.70,v_enable_balance_t=1249.83] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>委托已提交，合同号为：28898</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1206,24 +1207,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-10 09:47:07</t>
+          <t>2025-09-11 09:55:41</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>盛达资源</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1234,17 +1235,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：296993</t>
+          <t>委托已提交，合同号为：29067</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-10 09:50:51</t>
+          <t>2025-09-11 09:56:02</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中钨高新</t>
+          <t>爱婴室</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1272,17 +1273,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：299849</t>
+          <t>委托已提交，合同号为：198820</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-10 09:51:24</t>
+          <t>2025-09-11 10:04:27</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1310,17 +1311,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：303250</t>
+          <t>委托已提交，合同号为：205635</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-10 09:51:44</t>
+          <t>2025-09-11 10:06:51</t>
         </is>
       </c>
     </row>
@@ -1332,12 +1333,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
+          <t>立讯精密</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1348,17 +1349,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：305404</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-10 09:52:09</t>
+          <t>2025-09-11 10:15:41</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1371,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>厦门钨业</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1386,17 +1387,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>您的资金余额不足，请通过银证转账转入资金</t>
+          <t>委托已提交，合同号为：257971</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-10 09:52:29</t>
+          <t>2025-09-11 10:28:42</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1434,7 +1435,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-10 09:57:09</t>
+          <t>2025-09-11 11:31:15</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>爱婴室</t>
+          <t>祥鑫科技</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1455,14 +1456,14 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 1}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+          <t>委托已提交，合同号为：369230</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1472,19 +1473,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-10 09:57:10</t>
+          <t>2025-09-11 11:31:42</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>数据港</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1500,17 +1501,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：151843</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-10 09:59:27</t>
+          <t>2025-09-11 18:09:48</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1523,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1538,7 +1539,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1548,7 +1549,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-10 11:50:02</t>
+          <t>2025-09-11 18:10:47</t>
         </is>
       </c>
     </row>
@@ -1560,12 +1561,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1576,7 +1577,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>买入 大龙地产 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1586,7 +1587,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-10 13:45:33</t>
+          <t>2025-09-11 18:11:23</t>
         </is>
       </c>
     </row>
@@ -1598,12 +1599,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1614,7 +1615,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：68315</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1624,7 +1625,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-10 13:45:51</t>
+          <t>2025-09-11 18:12:21</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1637,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1652,7 +1653,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：68390</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1662,7 +1663,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-10 13:46:13</t>
+          <t>2025-09-11 18:12:58</t>
         </is>
       </c>
     </row>
@@ -1674,12 +1675,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1690,7 +1691,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[260200][可用资金不足][fund_account=8526331,money_type=0,p_occur_balance=466.24,v_enable_balance_t=443.36] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1700,7 +1701,121 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-09-10 13:46:32</t>
+          <t>2025-09-11 18:13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:15:59</t>
         </is>
       </c>
     </row>
@@ -1710,6 +1825,2499 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12702</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:33:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13372</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14059</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>豪尔赛</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14760</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15395</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:35:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:36:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>摩恩电气</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:37:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17252</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17717</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18190</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18682</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:39:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:40:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21370</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21676</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21909</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22157</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22439</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22703</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22952</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:43:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23194</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23414</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23705</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23919</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24478</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:46:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26094</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26317</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:48:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:49:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26980</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:49:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：169293</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>买入 中体产业 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:51:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>未找到确认按钮</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:53:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29530</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29714</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:54:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30087</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30261</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30411</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:55:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30630</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：30799</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：31007</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:58:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：197303</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2025-08-29 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：33986</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:02:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:02:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:03:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:14:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:16:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>无提示信息</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:16:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:36:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>买入 创新医疗 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:38:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>东方锆业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>创新医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:41:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>中体产业</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>中体产业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>百隆东方</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>百隆东方 没有持仓</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-08-29 10:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>蔚蓝锂芯</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>33</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：392406</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-08-29 13:09:35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2522,7 +5130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3491,7 +6099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4522,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5469,7 +8077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6465,6 +9073,1283 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>卖出 新大正 500 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13385</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14558</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15540</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:38:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16396</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:39:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17348</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:40:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18087</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:41:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18321</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:42:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18592</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:42:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18827</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:42:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19073</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>雪祺电气</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19325</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:43:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19577</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:44:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19886</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:44:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20120</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20451</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20679</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21217</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足] [fund_account=8526331,money_type=0,p_occur_balance=5917.70,v_enable_balance_t=1249.83] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>盛达资源</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：296993</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:50:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>中钨高新</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：299849</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:51:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>宏创控股</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：303250</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:51:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：305404</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:52:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>厦门钨业</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:57:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>卖出 博敏电子 900 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': ['child'], 'childOrSiblingSelector': [{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 1}], 'resourceId': 'com.hexin.plat.android:id/recyclerView'},))</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:57:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>数据港</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：151843</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-10 09:59:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-10 11:50:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>买入 大龙地产 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-10 13:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：68315</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-10 13:45:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：68390</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-10 13:46:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[260200][可用资金不足][fund_account=8526331,money_type=0,p_occur_balance=466.24,v_enable_balance_t=443.36] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-10 13:46:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7698,7 +11583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9925,7 +13810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10936,7 +14821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11909,7 +15794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13642,7 +17527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14615,7 +18500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15814,2497 +19699,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12702</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:33:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13372</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:34:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14059</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:34:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>豪尔赛</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14760</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:35:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>钧达股份</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：15395</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:35:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:36:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>摩恩电气</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:37:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>汇洁股份</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17252</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:37:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17717</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:38:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>德龙汇能</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18190</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:38:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>曙光股份</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18682</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:39:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:40:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21370</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:42:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21676</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:42:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21909</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:42:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22157</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:43:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22439</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:43:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22703</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:43:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22952</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:43:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23194</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:44:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23414</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:44:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23705</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:44:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23919</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:45:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：24478</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:46:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:46:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：26094</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:48:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：26317</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:48:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:49:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：26980</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:49:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>中信证券</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：169293</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:51:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>中体产业</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>买入 中体产业 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:51:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>未找到确认按钮</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:53:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：29530</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:54:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：29714</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:54:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30087</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:55:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30261</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:55:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>出版传媒</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30411</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:55:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30630</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:56:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：30799</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:56:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：31007</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:56:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:57:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:57:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:57:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>宁水集团</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:58:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:58:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:59:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>33</v>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：197303</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2025-08-29 09:59:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：33986</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:02:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:02:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:03:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:13:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:13:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>该股票为风险警示股票 ,请谨慎购买!</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:14:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>该股票为风险警示股票 ,请谨慎购买!当日通过竞价交易、大宗交易和盘后定价累计买入的单只风险警示股票 ,委托买入数量与当日已买入数量及已申报买入但尚未成交、也未撤销的数量之和 ,不得超过50万股。上市公司回购、5%以上股东根据已披露的增持计划增持股份等情形除外。</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:14:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:16:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>无提示信息</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:16:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>烽火通信</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:36:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>33</v>
-      </c>
-      <c r="E59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>买入 创新医疗 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:36:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:38:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>东方锆业 没有持仓</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:41:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>创新医疗 没有持仓</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:41:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>中体产业</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>中体产业 没有持仓</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:42:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>百隆东方</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>百隆东方 没有持仓</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:42:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>蔚蓝锂芯</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>33</v>
-      </c>
-      <c r="E65" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：392406</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2025-08-29 13:09:35</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,21 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>传艺科技</t>
+          <t>祥鑫科技</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：52239</t>
+          <t>委托已提交，合同号为：36181</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -523,24 +524,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-11 09:31:36</t>
+          <t>2025-09-12 09:28:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>立讯精密</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -551,34 +552,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：55642</t>
+          <t>委托已提交，合同号为：18695</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-11 09:32:04</t>
+          <t>2025-09-12 09:38:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>厦门钨业</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -589,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>您的资金余额不足，请通过银证转账转入资金</t>
+          <t>卖出 美能能源 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-11 09:35:49</t>
+          <t>2025-09-12 09:39:08</t>
         </is>
       </c>
     </row>
@@ -611,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -627,7 +628,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：24079</t>
+          <t>委托已提交，合同号为：19768</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -637,7 +638,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-11 09:47:35</t>
+          <t>2025-09-12 09:39:46</t>
         </is>
       </c>
     </row>
@@ -649,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -665,7 +666,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：24578</t>
+          <t>委托已提交，合同号为：20438</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -675,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-11 09:48:12</t>
+          <t>2025-09-12 09:40:26</t>
         </is>
       </c>
     </row>
@@ -687,7 +688,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,7 +704,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：25035</t>
+          <t>德美化工 没有持仓</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -713,7 +714,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-11 09:48:51</t>
+          <t>2025-09-12 09:40:55</t>
         </is>
       </c>
     </row>
@@ -725,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -741,7 +742,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：25438</t>
+          <t>委托已提交，合同号为：21535</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -751,7 +752,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-11 09:49:33</t>
+          <t>2025-09-12 09:41:38</t>
         </is>
       </c>
     </row>
@@ -763,7 +764,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：25839</t>
+          <t>委托已提交，合同号为：22139</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -789,7 +790,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-11 09:50:12</t>
+          <t>2025-09-12 09:42:18</t>
         </is>
       </c>
     </row>
@@ -801,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -817,7 +818,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：26238</t>
+          <t>委托已提交，合同号为：22757</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -827,7 +828,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-11 09:50:52</t>
+          <t>2025-09-12 09:42:56</t>
         </is>
       </c>
     </row>
@@ -839,7 +840,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -855,7 +856,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：26633</t>
+          <t>开普检测 没有持仓</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -865,7 +866,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-11 09:51:47</t>
+          <t>2025-09-12 09:43:25</t>
         </is>
       </c>
     </row>
@@ -877,12 +878,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>菲林格尔</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -893,7 +894,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：27202</t>
+          <t>委托已提交，合同号为：23480</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -903,7 +904,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-11 09:52:31</t>
+          <t>2025-09-12 09:43:49</t>
         </is>
       </c>
     </row>
@@ -915,12 +916,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -931,7 +932,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：27599</t>
+          <t>委托已提交，合同号为：23808</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -941,7 +942,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-11 09:53:13</t>
+          <t>2025-09-12 09:44:07</t>
         </is>
       </c>
     </row>
@@ -953,7 +954,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -969,7 +970,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：27790</t>
+          <t>委托已提交，合同号为：24130</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -979,7 +980,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-11 09:53:32</t>
+          <t>2025-09-12 09:44:28</t>
         </is>
       </c>
     </row>
@@ -991,7 +992,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1007,7 +1008,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：27954</t>
+          <t>委托已提交，合同号为：24434</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1017,7 +1018,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-11 09:53:53</t>
+          <t>2025-09-12 09:44:48</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28139</t>
+          <t>委托已提交，合同号为：24764</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-11 09:54:14</t>
+          <t>2025-09-12 09:45:13</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1068,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1083,7 +1084,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28347</t>
+          <t>买入 万丰股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1093,7 +1094,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-11 09:54:38</t>
+          <t>2025-09-12 09:45:43</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1106,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1121,7 +1122,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28526</t>
+          <t>委托已提交，合同号为：25531</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-11 09:54:57</t>
+          <t>2025-09-12 09:46:05</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1144,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28684</t>
+          <t>委托已提交，合同号为：25800</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1169,24 +1170,24 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-11 09:55:22</t>
+          <t>2025-09-12 09:46:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>立讯精密</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1197,34 +1198,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：28898</t>
+          <t>委托已提交，合同号为：162950</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-11 09:55:41</t>
+          <t>2025-09-12 09:47:22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>传艺科技</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1235,17 +1236,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：29067</t>
+          <t>委托已提交，合同号为：164803</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-11 09:56:02</t>
+          <t>2025-09-12 09:47:48</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1258,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>爱婴室</t>
+          <t>宏创控股</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1273,17 +1274,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：198820</t>
+          <t>委托已提交，合同号为：389072</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-11 10:04:27</t>
+          <t>2025-09-12 09:49:00</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>常宝股份</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1311,17 +1312,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：205635</t>
+          <t>委托已提交，合同号为：393257</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-11 10:06:51</t>
+          <t>2025-09-12 09:49:22</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1334,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>立讯精密</t>
+          <t>鸿路钢构</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1349,17 +1350,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>委托已提交，合同号为：397159</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-11 10:15:41</t>
+          <t>2025-09-12 09:49:45</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1372,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1387,17 +1388,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：257971</t>
+          <t>委托已提交，合同号为：400534</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-11 10:28:42</t>
+          <t>2025-09-12 09:50:05</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1410,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>传艺科技</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1425,17 +1426,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>委托已提交，合同号为：404220</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-11 11:31:15</t>
+          <t>2025-09-12 09:50:29</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1448,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>祥鑫科技</t>
+          <t>精达股份</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1463,7 +1464,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：369230</t>
+          <t>委托已提交，合同号为：185724</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1473,24 +1474,24 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-11 11:31:42</t>
+          <t>2025-09-12 09:52:39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>紫光国微</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1501,29 +1502,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>委托已提交，合同号为：295054</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-11 18:09:48</t>
+          <t>2025-09-12 10:28:41</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1539,34 +1540,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>委托已提交，合同号为：298690</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-11 18:10:47</t>
+          <t>2025-09-12 10:30:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1577,245 +1578,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>委托已提交，合同号为：388491</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-11 18:11:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:12:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>卖出数量计算失败</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:12:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:13:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>德美化工</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:14:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:15:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-09-11 18:15:59</t>
+          <t>2025-09-12 11:13:16</t>
         </is>
       </c>
     </row>
@@ -1825,6 +1598,1207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14855</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:34:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15515</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:35:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16160</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:35:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16822</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:36:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17471</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:36:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18056</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18622</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:37:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19761</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20091</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20382</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:39:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20704</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21011</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21369</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21697</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21966</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:41:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22269</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22614</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22934</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23244</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23565</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23880</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:43:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24783</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:45:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25087</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>深桑达A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>33</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：165976</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：168413</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>北方股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>北方股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:46:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>创新医疗</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211071</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:55:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：211071</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:55:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组-中线龙头</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：398681</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:24:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组-逻辑为王</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>33</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:25:04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4317,7 +5291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5130,7 +6104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6099,7 +7073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7130,7 +8104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8077,7 +9051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9073,6 +10047,1625 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>传艺科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：52239</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:31:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：55642</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>厦门钨业</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>您的资金余额不足，请通过银证转账转入资金</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24079</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24578</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:48:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25035</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:48:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25438</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25839</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26238</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:50:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：26633</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:52:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27599</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:53:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27790</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>福建水泥</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：27954</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:53:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28139</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28347</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:54:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>优彩资源</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28526</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:54:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28684</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:55:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：28898</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:55:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：29067</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-11 09:56:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>爱婴室</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：198820</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-11 10:04:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>博敏电子</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：205635</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-11 10:06:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-11 10:15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>恒宝股份</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：257971</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-11 10:28:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>传艺科技</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:31:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>祥鑫科技</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：369230</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-11 11:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:09:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:10:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:12:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:15:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:35:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:36:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-09-11 18:37:22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10344,7 +12937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11583,7 +14176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13810,7 +16403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14821,7 +17414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15794,7 +18387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17527,7 +20120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18498,1205 +21091,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ST瑞和</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14855</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:34:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：15515</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:35:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16160</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:35:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>出版传媒</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16822</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:36:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>利仁科技</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17471</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:36:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>永东股份</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18056</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:37:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18622</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:37:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：19761</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:39:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：20091</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:39:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：20382</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:39:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：20704</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:40:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21011</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:40:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21369</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:41:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21697</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:41:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：21966</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:41:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22269</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:42:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22614</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:42:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：22934</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:42:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23244</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:43:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23565</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:43:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：23880</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:43:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：24783</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:45:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：25087</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:45:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>深桑达A</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>33</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：165976</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:46:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：168413</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:46:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>北方股份</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>北方股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:46:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>创新医疗</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：211071</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:55:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：211071</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:55:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>组-中线龙头</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：398681</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-09-01 11:24:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>组-逻辑为王</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>33</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-09-01 11:25:04</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,22 +7,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +499,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>祥鑫科技</t>
+          <t>恒宝股份</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -514,7 +515,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：36181</t>
+          <t>委托已提交，合同号为：58692</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -524,24 +525,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-12 09:28:33</t>
+          <t>2025-09-15 09:31:25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -552,17 +553,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18695</t>
+          <t>委托已提交，合同号为：63061</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-12 09:38:40</t>
+          <t>2025-09-15 09:31:50</t>
         </is>
       </c>
     </row>
@@ -574,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -590,7 +591,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>卖出 美能能源 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>委托已提交，合同号为：12364</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -600,7 +601,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-12 09:39:08</t>
+          <t>2025-09-15 09:33:59</t>
         </is>
       </c>
     </row>
@@ -612,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -628,7 +629,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19768</t>
+          <t>委托已提交，合同号为：13216</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -638,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-12 09:39:46</t>
+          <t>2025-09-15 09:34:43</t>
         </is>
       </c>
     </row>
@@ -650,7 +651,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20438</t>
+          <t>委托已提交，合同号为：14002</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -676,7 +677,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-12 09:40:26</t>
+          <t>2025-09-15 09:35:25</t>
         </is>
       </c>
     </row>
@@ -688,7 +689,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -704,7 +705,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>德美化工 没有持仓</t>
+          <t>委托已提交，合同号为：14746</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -714,7 +715,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-12 09:40:55</t>
+          <t>2025-09-15 09:36:10</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -742,7 +743,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：21535</t>
+          <t>委托已提交，合同号为：15493</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -752,7 +753,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-12 09:41:38</t>
+          <t>2025-09-15 09:36:54</t>
         </is>
       </c>
     </row>
@@ -764,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -780,7 +781,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：22139</t>
+          <t>委托已提交，合同号为：16186</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -790,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-12 09:42:18</t>
+          <t>2025-09-15 09:37:38</t>
         </is>
       </c>
     </row>
@@ -802,7 +803,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,7 +819,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：22757</t>
+          <t>委托已提交，合同号为：16848</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -828,7 +829,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-12 09:42:56</t>
+          <t>2025-09-15 09:38:22</t>
         </is>
       </c>
     </row>
@@ -840,7 +841,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>开普检测 没有持仓</t>
+          <t>委托已提交，合同号为：17449</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-12 09:43:25</t>
+          <t>2025-09-15 09:39:06</t>
         </is>
       </c>
     </row>
@@ -878,12 +879,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>双箭股份</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -894,7 +895,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：23480</t>
+          <t>委托已提交，合同号为：18160</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -904,7 +905,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-12 09:43:49</t>
+          <t>2025-09-15 09:39:50</t>
         </is>
       </c>
     </row>
@@ -916,12 +917,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -932,7 +933,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：23808</t>
+          <t>委托已提交，合同号为：18873</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -942,7 +943,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-12 09:44:07</t>
+          <t>2025-09-15 09:40:36</t>
         </is>
       </c>
     </row>
@@ -954,7 +955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -970,7 +971,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：24130</t>
+          <t>委托已提交，合同号为：19242</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -980,7 +981,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-12 09:44:28</t>
+          <t>2025-09-15 09:40:58</t>
         </is>
       </c>
     </row>
@@ -992,7 +993,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1008,7 +1009,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：24434</t>
+          <t>委托已提交，合同号为：19607</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1018,7 +1019,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-12 09:44:48</t>
+          <t>2025-09-15 09:41:20</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1046,7 +1047,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：24764</t>
+          <t>委托已提交，合同号为：19934</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1056,7 +1057,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-12 09:45:13</t>
+          <t>2025-09-15 09:41:42</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>庄园牧场</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1084,7 +1085,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>买入 万丰股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：20252</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1094,7 +1095,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-12 09:45:43</t>
+          <t>2025-09-15 09:42:04</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1122,7 +1123,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：25531</t>
+          <t>委托已提交，合同号为：20545</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1132,7 +1133,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-12 09:46:05</t>
+          <t>2025-09-15 09:42:24</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1160,7 +1161,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：25800</t>
+          <t>委托已提交，合同号为：20816</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1170,24 +1171,24 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-12 09:46:36</t>
+          <t>2025-09-15 09:42:45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>立讯精密</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1198,34 +1199,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：162950</t>
+          <t>委托已提交，合同号为：21093</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-12 09:47:22</t>
+          <t>2025-09-15 09:43:07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>传艺科技</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1236,34 +1237,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：164803</t>
+          <t>委托已提交，合同号为：21396</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-12 09:47:48</t>
+          <t>2025-09-15 09:43:29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>宏创控股</t>
+          <t>亚通精工</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1274,34 +1275,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：389072</t>
+          <t>委托已提交，合同号为：21714</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-12 09:49:00</t>
+          <t>2025-09-15 09:43:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>常宝股份</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1312,17 +1313,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：393257</t>
+          <t>委托已提交，合同号为：22018</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-12 09:49:22</t>
+          <t>2025-09-15 09:44:13</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1335,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鸿路钢构</t>
+          <t>紫光国微</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1350,17 +1351,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：397159</t>
+          <t>委托已提交，合同号为：148915</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-12 09:49:45</t>
+          <t>2025-09-15 09:44:54</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>八一钢铁</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1388,17 +1389,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：400534</t>
+          <t>买入 药明康德 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-12 09:50:05</t>
+          <t>2025-09-15 09:46:24</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1411,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>江西铜业</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1426,7 +1427,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：404220</t>
+          <t>卖出 兴业银锡 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1436,7 +1437,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-12 09:50:29</t>
+          <t>2025-09-15 10:12:28</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1449,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>武进不锈</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1464,17 +1465,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：185724</t>
+          <t>委托已提交，合同号为：554313</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-12 09:52:39</t>
+          <t>2025-09-15 10:12:55</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1487,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>紫光国微</t>
+          <t>八一钢铁</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1502,17 +1503,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：295054</t>
+          <t>八一钢铁 没有持仓</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-12 10:28:41</t>
+          <t>2025-09-15 10:16:01</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1525,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>精达股份</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1540,7 +1541,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：298690</t>
+          <t>委托已提交，合同号为：302200</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1550,7 +1551,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-12 10:30:10</t>
+          <t>2025-09-15 10:38:51</t>
         </is>
       </c>
     </row>
@@ -1562,12 +1563,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>钧达股份</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1578,7 +1579,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：388491</t>
+          <t>委托已提交，合同号为：344269</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1588,7 +1589,311 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-12 11:13:16</t>
+          <t>2025-09-15 11:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：344731</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：345175</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：345652</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：346896</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：348544</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>买入 飞龙股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-15 13:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：449295</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-15 13:54:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>买入 上海电影 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:50:01</t>
         </is>
       </c>
     </row>
@@ -1598,6 +1903,979 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>南山铝业</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>南山铝业 没有持仓</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>安道麦A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>安道麦A 没有持仓</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>塔牌集团</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>买入 塔牌集团 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:37:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>联发股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>买入 联发股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:38:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:52:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:54:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:54:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>嘉华生物科技股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:55:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:55:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>卖出 *ST星农 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-02 10:02:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-02 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>弘业期货</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:31:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>组-一枝梨花压海棠</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>买入 福莱新材 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-02 13:32:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>买入 西藏矿业 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>楚江新材</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>驰宏锌锗</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>买入 驰宏锌锗 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:21:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>买入 永兴材料 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>大西洋</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>买入 大西洋 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>首钢股份</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>买入 首钢股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>买入 森特股份 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:22:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>江河集团</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>买入 江河集团 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>建筑行业</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>中毅达</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入 中毅达 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:23:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>首创奥莱</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:24:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-02 14:25:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +4076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5291,7 +6569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6104,7 +7382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7073,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8104,7 +9382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9051,7 +10329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10047,6 +11325,1169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>祥鑫科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：36181</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18695</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:38:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>卖出 美能能源 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:39:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19768</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:39:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20438</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:40:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>德美化工 没有持仓</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:40:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21535</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:41:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22139</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:42:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22757</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:42:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>开普检测 没有持仓</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23480</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：23808</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:44:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24130</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24434</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：24764</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:45:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>买入 万丰股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25531</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：25800</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:46:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>立讯精密</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：162950</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>传艺科技</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：164803</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:47:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>宏创控股</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：389072</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:49:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>常宝股份</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：393257</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>鸿路钢构</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：397159</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>八一钢铁</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：400534</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：404220</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:50:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：185724</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-12 09:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：295054</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-12 10:28:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>恒宝股份</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：298690</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-12 10:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：388491</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-12 11:13:16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11660,7 +14101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12937,7 +15378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14176,7 +16617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16403,7 +18844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17414,7 +19855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18387,7 +20828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20118,977 +22559,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>南山铝业</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>南山铝业 没有持仓</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:37:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>安道麦A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>安道麦A 没有持仓</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:37:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>塔牌集团</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>买入 塔牌集团 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:37:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>联发股份</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>买入 联发股份 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:38:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:52:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:54:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:54:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>嘉华生物科技股份</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:55:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-02 09:55:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>卖出 *ST星农 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-02 10:02:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-02 10:23:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>弘业期货</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-02 13:31:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>组-一枝梨花压海棠</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>买入 福莱新材 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-02 13:32:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>西藏矿业</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>买入 西藏矿业 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:21:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>楚江新材</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:21:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>有色金属</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>驰宏锌锗</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>买入 驰宏锌锗 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:21:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>永兴材料</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>买入 永兴材料 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:22:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>大西洋</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>买入 大西洋 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:22:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>钢铁</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>首钢股份</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>买入 首钢股份 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:22:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>森特股份</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>买入 森特股份 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:22:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>江河集团</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>买入 江河集团 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:23:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>建筑行业</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>中毅达</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>买入 中毅达 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:23:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>首创奥莱</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:24:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>物美消费</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-09-02 14:25:00</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,23 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-16" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +495,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>恒宝股份</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,59 +512,59 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：58692</t>
+          <t>卖出 大龙地产 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-15 09:31:25</t>
+          <t>2025-09-16 09:34:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：63061</t>
+          <t>卖出 居然智家 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-15 09:31:50</t>
+          <t>2025-09-16 09:34:54</t>
         </is>
       </c>
     </row>
@@ -575,7 +576,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>烟台亚通精工机械</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,11 +588,11 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：12364</t>
+          <t>委托已提交，合同号为：14169</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -601,7 +602,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-15 09:33:59</t>
+          <t>2025-09-16 09:35:41</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>庄园牧场</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,11 +626,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：13216</t>
+          <t>庄园牧场 没有持仓</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +640,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-15 09:34:43</t>
+          <t>2025-09-16 09:36:05</t>
         </is>
       </c>
     </row>
@@ -651,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,11 +664,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14002</t>
+          <t>委托已提交，合同号为：15263</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -677,7 +678,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-15 09:35:25</t>
+          <t>2025-09-16 09:36:46</t>
         </is>
       </c>
     </row>
@@ -689,7 +690,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -701,11 +702,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14746</t>
+          <t>委托已提交，合同号为：15985</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-15 09:36:10</t>
+          <t>2025-09-16 09:37:33</t>
         </is>
       </c>
     </row>
@@ -727,7 +728,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -739,11 +740,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15493</t>
+          <t>委托已提交，合同号为：16679</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -753,7 +754,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-15 09:36:54</t>
+          <t>2025-09-16 09:38:21</t>
         </is>
       </c>
     </row>
@@ -765,7 +766,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -777,11 +778,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16186</t>
+          <t>委托已提交，合同号为：16679</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -791,7 +792,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-15 09:37:38</t>
+          <t>2025-09-16 09:38:21</t>
         </is>
       </c>
     </row>
@@ -803,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -815,11 +816,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16848</t>
+          <t>委托已提交，合同号为：16680</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -829,7 +830,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-15 09:38:22</t>
+          <t>2025-09-16 09:38:22</t>
         </is>
       </c>
     </row>
@@ -841,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -853,11 +854,11 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：17449</t>
+          <t>委托已提交，合同号为：16681</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -867,7 +868,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-15 09:39:06</t>
+          <t>2025-09-16 09:38:23</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,11 +892,11 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18160</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-15 09:39:50</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -917,23 +918,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：18873</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -943,7 +944,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-15 09:40:36</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -955,7 +956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -967,11 +968,11 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19242</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -981,7 +982,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-15 09:40:58</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -993,7 +994,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1005,11 +1006,11 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19607</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-15 09:41:20</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>德龙汇能  6.65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1043,11 +1044,11 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：19934</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1057,7 +1058,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-15 09:41:42</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1070,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>庄园牧场</t>
+          <t>美芝股份 10.65</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1081,11 +1082,11 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20252</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1095,7 +1096,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-15 09:42:04</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1108,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>百达精工 10.93</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1119,11 +1120,11 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20545</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1133,7 +1134,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-15 09:42:24</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1146,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>弘宇股份</t>
+          <t>万里股份 11.38</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1157,11 +1158,11 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：20816</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1171,7 +1172,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-15 09:42:45</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1184,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>万丰股份 17.23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1195,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：21093</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1209,7 +1210,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-15 09:43:07</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>一彬科技 18.49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1233,11 +1234,11 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：21396</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1247,7 +1248,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-15 09:43:29</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>亚通精工</t>
+          <t>浪莎股份 19.07</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1267,15 +1268,17 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：21714</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1285,7 +1288,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-15 09:43:51</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>超讯通信</t>
+          <t>楚环科技 23.16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1309,11 +1312,11 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：22018</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1323,57 +1326,57 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-15 09:44:13</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>紫光国微</t>
+          <t>亚通精工 23.77</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：148915</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-15 09:44:54</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>超讯通信 39.71</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1385,21 +1388,21 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>买入 药明康德 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：16682</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-15 09:46:24</t>
+          <t>2025-09-16 09:38:24</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>兴业银锡</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1423,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>卖出 兴业银锡 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>卖出 福莱新材 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-15 10:12:28</t>
+          <t>2025-09-16 09:46:01</t>
         </is>
       </c>
     </row>
@@ -1449,33 +1452,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>武进不锈</t>
+          <t>飞龙股份</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：554313</t>
+          <t>卖出 福莱新材 100 股失败: {'code': -32003, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-15 10:12:55</t>
+          <t>2025-09-16 09:46:02</t>
         </is>
       </c>
     </row>
@@ -1487,33 +1490,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>八一钢铁</t>
+          <t>上海电影</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>八一钢铁 没有持仓</t>
+          <t>卖出 福莱新材 100 股失败: {'code': -32004, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>长城证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-15 10:16:01</t>
+          <t>2025-09-16 09:46:03</t>
         </is>
       </c>
     </row>
@@ -1525,23 +1528,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>精达股份</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：302200</t>
+          <t>卖出 福莱新材 100 股失败: {'code': -32005, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1551,7 +1554,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-15 10:38:51</t>
+          <t>2025-09-16 09:46:04</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1566,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1575,11 +1578,11 @@
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：344269</t>
+          <t>委托已提交，合同号为：468330</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1589,7 +1592,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-15 11:08:17</t>
+          <t>2025-09-16 13:47:38</t>
         </is>
       </c>
     </row>
@@ -1601,23 +1604,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：344731</t>
+          <t>委托已提交，合同号为：468747</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1627,7 +1630,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-15 11:08:40</t>
+          <t>2025-09-16 13:47:59</t>
         </is>
       </c>
     </row>
@@ -1639,23 +1642,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>领益智造</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：345175</t>
+          <t>委托已提交，合同号为：469266</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1665,7 +1668,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-15 11:09:03</t>
+          <t>2025-09-16 13:48:24</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1693,7 +1696,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：345652</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1703,7 +1706,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-09-15 11:09:26</t>
+          <t>2025-09-16 18:12:40</t>
         </is>
       </c>
     </row>
@@ -1715,12 +1718,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>钧达股份</t>
+          <t>上海电影</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1731,7 +1734,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：346896</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1741,7 +1744,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-09-15 11:10:34</t>
+          <t>2025-09-16 18:12:52</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1756,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>御银股份</t>
+          <t>英联股份</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1769,7 +1772,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：348544</t>
+          <t>委托已提交，合同号为：630</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1779,121 +1782,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-09-15 11:11:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>飞龙股份</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>买入 飞龙股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-09-15 13:54:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>福莱新材</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：449295</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-09-15 13:54:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>上海电影</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>买入 上海电影 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-09-15 14:50:01</t>
+          <t>2025-09-16 18:13:12</t>
         </is>
       </c>
     </row>
@@ -1903,6 +1792,1739 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12485</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:35:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12980</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:36:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13502</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:36:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>德冠新材</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13972</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14278</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14578</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:37:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14863</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15171</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15441</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15731</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16017</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16296</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16592</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16858</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17182</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17514</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17778</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18050</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:42:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18337</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:42:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18589</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:43:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:44:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20275</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-03 09:47:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:40:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:41:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:44:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>物美消费</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：307</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:46:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>XD首创奥</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>森特股份</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>西藏矿业</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>永兴材料</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025-09-03 17:48:38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2875,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4076,7 +5698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6569,7 +8191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7382,7 +9004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8351,7 +9973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9382,7 +11004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10329,7 +11951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11325,6 +12947,1473 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>恒宝股份</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：58692</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:31:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：63061</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:31:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12364</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:33:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13216</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:34:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>福建水泥</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14002</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:35:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14746</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15493</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16186</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:37:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16848</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:38:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：17449</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:39:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18160</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:39:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：18873</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19242</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:40:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19607</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:41:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：19934</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:41:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>庄园牧场</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20252</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20545</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:42:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>弘宇股份</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：20816</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21093</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21396</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:43:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>亚通精工</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：21714</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：22018</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>紫光国微</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：148915</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:44:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>买入 药明康德 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-15 09:46:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>卖出 兴业银锡 100 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:12:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>武进不锈</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：554313</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>八一钢铁</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>八一钢铁 没有持仓</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>长城证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：302200</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-15 10:38:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：344269</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：344731</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:08:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：345175</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：345652</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>钧达股份</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：346896</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:10:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>御银股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：348544</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-15 11:11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>买入 飞龙股份 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-15 13:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：449295</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-15 13:54:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>买入 上海电影 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-15 14:50:01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12482,7 +15571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14101,7 +17190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15378,7 +18467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16617,7 +19706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18844,7 +21933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19855,7 +22944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20826,1737 +23915,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12485</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:35:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12980</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:36:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13502</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:36:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13972</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:37:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14278</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:37:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>重庆燃气</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14578</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:37:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：14863</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:38:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：15171</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:38:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>合富中国</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：15441</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:38:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：15731</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:39:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16017</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:39:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16296</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:40:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16592</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:40:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：16858</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:40:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17182</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:41:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17514</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:41:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：17778</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:41:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18050</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:42:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒尚节能</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18337</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:42:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：18589</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:43:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:43:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:44:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：20275</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:45:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:46:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>处理弹窗时发生异常: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-09-03 09:47:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:40:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:41:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:42:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:42:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>卖出数量计算失败</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:42:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:43:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:43:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:43:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:44:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:44:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:44:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:45:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:45:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>当前时间不允许委托</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:45:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>物美消费</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：307</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:46:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>XD首创奥</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:46:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>森特股份</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:48:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>西藏矿业</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:48:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>永兴材料</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>长城证券</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2025-09-03 17:48:38</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/portfolio/trade_operation_history.xlsx
@@ -7,24 +7,25 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-26" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-25" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-22" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,12 +496,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>药明康德</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -512,33 +513,33 @@
         <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>卖出 大龙地产 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：62276</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-09-16 09:34:06</t>
+          <t>2025-09-17 09:33:16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>组合策略</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>上海电影</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,21 +551,21 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>卖出 居然智家 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>卖出 上海电影 100 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>川财证券</t>
+          <t>中泰证券</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-09-16 09:34:54</t>
+          <t>2025-09-17 09:33:28</t>
         </is>
       </c>
     </row>
@@ -588,11 +589,11 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：14169</t>
+          <t>委托已提交，合同号为：15260</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -602,7 +603,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-09-16 09:35:41</t>
+          <t>2025-09-17 09:37:04</t>
         </is>
       </c>
     </row>
@@ -614,7 +615,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>庄园牧场</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,11 +627,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>庄园牧场 没有持仓</t>
+          <t>委托已提交，合同号为：15922</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -640,7 +641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-09-16 09:36:05</t>
+          <t>2025-09-17 09:37:46</t>
         </is>
       </c>
     </row>
@@ -652,7 +653,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>醋化股份</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -664,11 +665,11 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15263</t>
+          <t>委托已提交，合同号为：16512</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -678,7 +679,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-09-16 09:36:46</t>
+          <t>2025-09-17 09:38:27</t>
         </is>
       </c>
     </row>
@@ -690,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,11 +703,11 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：15985</t>
+          <t>委托已提交，合同号为：17084</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -716,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-09-16 09:37:33</t>
+          <t>2025-09-17 09:39:08</t>
         </is>
       </c>
     </row>
@@ -728,7 +729,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,11 +741,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16679</t>
+          <t>委托已提交，合同号为：17637</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:21</t>
+          <t>2025-09-17 09:39:48</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -778,11 +779,11 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16679</t>
+          <t>委托已提交，合同号为：18192</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -792,7 +793,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:21</t>
+          <t>2025-09-17 09:40:28</t>
         </is>
       </c>
     </row>
@@ -804,7 +805,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -816,11 +817,11 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16680</t>
+          <t>委托已提交，合同号为：18708</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -830,7 +831,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:22</t>
+          <t>2025-09-17 09:41:08</t>
         </is>
       </c>
     </row>
@@ -842,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -854,11 +855,11 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16681</t>
+          <t>委托已提交，合同号为：19200</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -868,7 +869,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:23</t>
+          <t>2025-09-17 09:41:48</t>
         </is>
       </c>
     </row>
@@ -880,23 +881,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>浙江万丰股份</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>委托已提交，合同号为：19475</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -906,7 +907,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:11</t>
         </is>
       </c>
     </row>
@@ -918,7 +919,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -927,14 +928,14 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -944,7 +945,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:34</t>
         </is>
       </c>
     </row>
@@ -956,7 +957,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -965,14 +966,14 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -982,7 +983,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:35</t>
         </is>
       </c>
     </row>
@@ -994,7 +995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t xml:space="preserve"> 瑞尔特</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1003,14 +1004,14 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1020,7 +1021,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:36</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1033,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>德龙汇能  6.65</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1041,14 +1042,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1058,7 +1059,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:37</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1071,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>美芝股份 10.65</t>
+          <t>春雪食品</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1079,14 +1080,14 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:38</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1109,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>百达精工 10.93</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1117,14 +1118,14 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1134,7 +1135,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:39</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>万里股份 11.38</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1155,14 +1156,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7.99</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1172,7 +1173,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:40</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>万丰股份 17.23</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1193,14 +1194,14 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.99</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1210,7 +1211,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:41</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1223,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>一彬科技 18.49</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1231,14 +1232,14 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1248,7 +1249,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:42</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1261,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>浪莎股份 19.07</t>
+          <t>亚通精工</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1268,17 +1269,15 @@
           <t>买入</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
+      <c r="D22" t="n">
+        <v>10.99</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1288,7 +1287,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:43</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>楚环科技 23.16</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1309,14 +1308,14 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1326,7 +1325,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:44</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1337,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>亚通精工 23.77</t>
+          <t>海森药业</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1347,14 +1346,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>最新:</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1364,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:42:45</t>
         </is>
       </c>
     </row>
@@ -1376,23 +1375,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>超讯通信 39.71</t>
+          <t>浙江万丰股份</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：16682</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1402,45 +1401,45 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-09-16 09:38:24</t>
+          <t>2025-09-17 09:56:17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>卖出 福莱新材 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>[260200][可用资金不足][fund_account=8526331,money_type=0,p_occur_balance=1075.29,v_enable_balance_t=263.10] 报错：可用资金不足，请检查委托数量是否超限，也可点击转入资金可前往银证转帐。</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-09-16 09:46:01</t>
+          <t>2025-09-17 10:04:29</t>
         </is>
       </c>
     </row>
@@ -1452,23 +1451,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>飞龙股份</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>卖出 福莱新材 100 股失败: {'code': -32003, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：195876</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1478,7 +1477,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-16 09:46:02</t>
+          <t>2025-09-17 10:06:49</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1489,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>上海电影</t>
+          <t>东信和平</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1499,14 +1498,14 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12.66</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>卖出 福莱新材 100 股失败: {'code': -32004, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>委托已提交，合同号为：196867</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1516,7 +1515,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-09-16 09:46:03</t>
+          <t>2025-09-17 10:07:11</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1527,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>英联股份</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>卖出 福莱新材 100 股失败: {'code': -32005, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1554,7 +1553,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-09-16 09:46:04</t>
+          <t>2025-09-17 11:35:47</t>
         </is>
       </c>
     </row>
@@ -1566,23 +1565,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>中兴通讯</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：468330</t>
+          <t>委托已提交，合同号为：363787</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1592,95 +1591,95 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-09-16 13:47:38</t>
+          <t>2025-09-17 13:06:21</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>中国稀土</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：468747</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>长城证券</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-09-16 13:47:59</t>
+          <t>2025-09-17 15:50:34</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>领益智造</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>委托已提交，合同号为：469266</t>
+          <t>卖出数量计算失败</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-09-16 13:48:24</t>
+          <t>2025-09-17 16:05:33</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>组合策略</t>
+          <t>AI市场追踪策略</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>药明康德</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1696,93 +1695,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>卖出数量计算失败</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>中泰证券</t>
+          <t>川财证券</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-09-16 18:12:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>上海电影</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>卖出数量计算失败</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-09-16 18:12:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>组合策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>英联股份</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：630</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-09-16 18:13:12</t>
+          <t>2025-09-17 16:06:20</t>
         </is>
       </c>
     </row>
@@ -1792,6 +1715,979 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：10722</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:33:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11305</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：11935</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12296</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12625</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：12949</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13267</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13586</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：13917</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:36:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:37:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:38:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:39:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>未找到弹窗内容</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>精达股份</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：95676</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LHW-九凤鸣岐</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>得邦照明</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>精工钢构</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：97777</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-04 09:41:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LHW-穷奇踏焰</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>吉林敖东</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：278230</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-04 10:53:51</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3524,7 +4420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4497,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5698,7 +6594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8191,7 +9087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9004,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9973,7 +10869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11004,7 +11900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11951,7 +12847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12947,6 +13843,1361 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>卖出 大龙地产 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>卖出 居然智家 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>烟台亚通精工机械</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：14169</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:35:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>庄园牧场</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>庄园牧场 没有持仓</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:36:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15263</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:36:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>雪祺电气</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：15985</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16679</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16679</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16680</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16681</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>浙江万丰股份</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>德龙汇能  6.65</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>美芝股份 10.65</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>百达精工 10.93</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>万里股份 11.38</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>万丰股份 17.23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>一彬科技 18.49</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>浪莎股份 19.07</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>楚环科技 23.16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>亚通精工 23.77</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>超讯通信 39.71</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：16682</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>川财证券</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:38:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>福莱新材</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>卖出 福莱新材 100 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:46:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>飞龙股份</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>卖出 福莱新材 100 股失败: {'code': -32003, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:46:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>卖出 福莱新材 100 股失败: {'code': -32004, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>卖出 福莱新材 100 股失败: {'code': -32005, 'data': "Selector [resourceId='com.hexin.plat.android:id/content_stock']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-16 09:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：468330</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:47:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：468747</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:47:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：469266</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-16 13:48:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>药明康德</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上海电影</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>卖出数量计算失败</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>组合策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>英联股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>委托已提交，合同号为：630</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>中泰证券</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-16 18:13:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14408,7 +16659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15571,7 +17822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17190,7 +19441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18467,7 +20718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19706,7 +21957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21933,7 +24184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22942,977 +25193,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>账户</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：10722</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:33:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：11305</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:34:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：11935</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:34:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12296</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:34:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>苏能股份</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12625</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:35:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：12949</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:35:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13267</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:35:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13586</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:36:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：13917</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:36:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:36:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:37:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:37:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:37:57</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:38:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:38:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:38:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>开普检测</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:39:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:39:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:39:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>未找到弹窗内容</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>川财证券</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:40:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>精达股份</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：95676</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:40:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LHW-九凤鸣岐</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>得邦照明</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:40:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>精工钢构</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：97777</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-09-04 09:41:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>LHW-穷奇踏焰</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>吉林敖东</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>委托已提交，合同号为：278230</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>中泰证券</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-09-04 10:53:51</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>